--- a/LR4/LR4.xlsx
+++ b/LR4/LR4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Уник\МОптим\LR4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209DCEA-FC64-4274-A672-2F175DF73127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE3DB9-9DAB-4C7F-92A6-EF14028D50EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Метод золотого сечения</t>
   </si>
@@ -82,15 +82,118 @@
     <t>Метод дихотомии</t>
   </si>
   <si>
-    <t>Ответ: D = [3,49793 ; 3,503793],  C = 3,503793, f(C) = -6,24999</t>
+    <t>N = 2L =</t>
+  </si>
+  <si>
+    <t>L =</t>
+  </si>
+  <si>
+    <t>E=</t>
+  </si>
+  <si>
+    <t>&gt; или &lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Точка минимума локализована на отрезке [3,42539; 3,55625]</t>
+  </si>
+  <si>
+    <t>a(8) = 3,42539 -&gt; f(a(8)) = -6,24443</t>
+  </si>
+  <si>
+    <t>b(8) = 3,55625 -&gt; f(b(8)) = -6,24684</t>
+  </si>
+  <si>
+    <t>x1(4) = 3,45625 -&gt; f(x1(4)) = -6,24684</t>
+  </si>
+  <si>
+    <t>x2(6) = 3,432813 -&gt; f(x2(6)) = -6,24549</t>
+  </si>
+  <si>
+    <t>x2(7) = 3,494531 -&gt; f(x2(7)) = -6,24997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2(8) = 3,525391 -&gt; f(x2(8)) =-6,24936 </t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [3,49793 ; 3,503793],  X = 3,503793, f(X) = -6,24999</t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [3,42539 ; 3,55625],  x2(7) = 3,494531, f(x2(7)) = -6,24997</t>
+  </si>
+  <si>
+    <t>Пасивный метод поиска минимума</t>
+  </si>
+  <si>
+    <t>A)</t>
+  </si>
+  <si>
+    <t>N =</t>
+  </si>
+  <si>
+    <t>E =</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>f(X)</t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [-5,636389; -623886]; X = 3,505556; f(X) = -6,24997</t>
+  </si>
+  <si>
+    <t>Б)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Точка минимума окализована на отрезке [-5,636389; -6,23886]</t>
+  </si>
+  <si>
+    <t>Точка минимума окализована на отрезке [-6; -6,09877]</t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [-6; -6,09877]; X = 3,555556; f(X) = -6,24691</t>
+  </si>
+  <si>
+    <t>Метод Фибоначчи</t>
+  </si>
+  <si>
+    <t>Числа Фибоначчи</t>
+  </si>
+  <si>
+    <t>a(15) = 3,496556 -&gt; f(a(15)) = -6,25</t>
+  </si>
+  <si>
+    <t>b(15) = 3,5015654 -&gt; f(b(15)) = -6,25</t>
+  </si>
+  <si>
+    <t>x2(15) = 3,5015654 -&gt; f(x2(15)) = -6,25</t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [3,496556 ; 3,5015654], X = 3,5015654, f = -6,25</t>
+  </si>
+  <si>
+    <t>Точка минимума локализирована на отрезке [3,496556; 3,5015654]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +227,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,29 +283,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -340,6 +513,55 @@
         <a:xfrm>
           <a:off x="12420601" y="1264022"/>
           <a:ext cx="7762252" cy="2433919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>67541</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>344826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C57FC7B-4DB8-4498-8099-51DCB5B3960E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67541" y="95621"/>
+          <a:ext cx="7625142" cy="1028844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,22 +870,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DCCB0-9C58-468D-AED0-D45510B4B5C4}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -673,25 +896,25 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <f>(3 - SQRT(5))/2</f>
         <v>0.3819660112501051</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <f>(SQRT(5)-1)/2</f>
         <v>0.6180339887498949</v>
       </c>
@@ -721,563 +944,2945 @@
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <f>G8+B4*(H8-G8)</f>
         <v>3.0557280900008408</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <f>G8+B5*(H8-G8)</f>
         <v>4.9442719099991592</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <f>B9*B9-7*B9+6</f>
         <v>-6.0526224699856996</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="9" t="str">
         <f>IF(D9&lt;F9,"&lt;","&gt;")</f>
         <v>&lt;</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <f>C9*C9-7*C9+6</f>
         <v>-4.1640786499873812</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <f>IF(E9="&gt;",B9,G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="9">
         <f>IF(E9="&lt;",C9,H8)</f>
         <v>4.9442719099991592</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="L9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="9">
-        <f>IF(E9="&gt;",C9,G9+$B$4*(H9-G9))</f>
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B23" si="0">IF(E9="&gt;",C9,G9+$B$4*(H9-G9))</f>
         <v>1.8885438199983176</v>
       </c>
-      <c r="C10" s="7">
-        <f>IF(E9="&lt;",B9,G9+$B$5*(H9-G9))</f>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:C23" si="1">IF(E9="&lt;",B9,G9+$B$5*(H9-G9))</f>
         <v>3.0557280900008408</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" ref="D10:D23" si="0">B10*B10-7*B10+6</f>
+      <c r="D10" s="9">
+        <f t="shared" ref="D10:D23" si="2">B10*B10-7*B10+6</f>
         <v>-3.6532089799343836</v>
       </c>
-      <c r="E10" s="7" t="str">
-        <f t="shared" ref="E10:E23" si="1">IF(D10&lt;F10,"&lt;","&gt;")</f>
+      <c r="E10" s="9" t="str">
+        <f t="shared" ref="E10:E23" si="3">IF(D10&lt;F10,"&lt;","&gt;")</f>
         <v>&gt;</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <f>C10*C10-7*C10+6</f>
         <v>-6.0526224699856996</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <f>IF(E10="&gt;",B10,G9)</f>
         <v>1.8885438199983176</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="9">
         <f>IF(E10="&lt;",C10,H9)</f>
         <v>4.9442719099991592</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="9">
-        <f>IF(E10="&gt;",C10,G10+$B$4*(H10-G10))</f>
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
         <v>3.0557280900008408</v>
       </c>
-      <c r="C11" s="7">
-        <f>IF(E10="&lt;",B10,G10+$B$5*(H10-G10))</f>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
         <v>3.7770876399966355</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.0526224699856996</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" ref="F11:F23" si="4">C11*C11-7*C11+6</f>
+        <v>-6.1732224397610942</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" ref="G11:G22" si="5">IF(E11="&gt;",B11,G10)</f>
+        <v>3.0557280900008408</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" ref="H11:H23" si="6">IF(E11="&lt;",C11,H10)</f>
+        <v>4.9442719099991592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
-        <v>-6.0526224699856996</v>
-      </c>
-      <c r="E11" s="7" t="str">
+        <v>3.7770876399966355</v>
+      </c>
+      <c r="C12" s="9">
         <f t="shared" si="1"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" ref="F10:F23" si="2">C11*C11-7*C11+6</f>
-        <v>-6.1732224397610942</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" ref="G11:G23" si="3">IF(E11="&gt;",B11,G10)</f>
-        <v>3.0557280900008408</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" ref="H11:H23" si="4">IF(E11="&lt;",C11,H10)</f>
-        <v>4.9442719099991592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>4</v>
-      </c>
-      <c r="B12" s="9">
-        <f>IF(E11="&gt;",C11,G11+$B$4*(H11-G11))</f>
-        <v>3.7770876399966355</v>
-      </c>
-      <c r="C12" s="7">
-        <f>IF(E11="&lt;",B11,G11+$B$5*(H11-G11))</f>
         <v>4.2229123600033649</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.1732224397610942</v>
-      </c>
-      <c r="E12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="2"/>
-        <v>-5.727397719754368</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="3"/>
-        <v>3.0557280900008408</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="4"/>
-        <v>4.2229123600033649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>5</v>
-      </c>
-      <c r="B13" s="9">
-        <f>IF(E12="&gt;",C12,G12+$B$4*(H12-G12))</f>
-        <v>3.5015528100075706</v>
-      </c>
-      <c r="C13" s="7">
-        <f>IF(E12="&lt;",B12,G12+$B$5*(H12-G12))</f>
-        <v>3.7770876399966355</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2499975887810812</v>
-      </c>
-      <c r="E13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D12" s="9">
         <f t="shared" si="2"/>
         <v>-6.1732224397610942</v>
       </c>
-      <c r="G13" s="9">
+      <c r="E12" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="4"/>
+        <v>-5.727397719754368</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="5"/>
         <v>3.0557280900008408</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="4"/>
+      <c r="H12" s="9">
+        <f t="shared" si="6"/>
+        <v>4.2229123600033649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5015528100075706</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
         <v>3.7770876399966355</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9">
-        <f>IF(E13="&gt;",C13,G13+$B$4*(H13-G13))</f>
-        <v>3.3312629199899053</v>
-      </c>
-      <c r="C14" s="7">
-        <f>IF(E13="&lt;",B13,G13+$B$5*(H13-G13))</f>
-        <v>3.5015528100075706</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.221527797829669</v>
-      </c>
-      <c r="E14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D13" s="9">
         <f t="shared" si="2"/>
         <v>-6.2499975887810812</v>
       </c>
-      <c r="G14" s="9">
+      <c r="E13" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.1732224397610942</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="5"/>
+        <v>3.0557280900008408</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="6"/>
+        <v>3.7770876399966355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
         <v>3.3312629199899053</v>
       </c>
-      <c r="H14" s="7">
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5015528100075706</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.221527797829669</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F14" s="9">
         <f t="shared" si="4"/>
+        <v>-6.2499975887810812</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3312629199899053</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="6"/>
         <v>3.7770876399966355</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="9">
-        <f>IF(E14="&gt;",C14,G14+$B$4*(H14-G14))</f>
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
         <v>3.5015528100075706</v>
       </c>
-      <c r="C15" s="7">
-        <f>IF(E14="&lt;",B14,G14+$B$5*(H14-G14))</f>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
         <v>3.6067977499789698</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2499975887810812</v>
-      </c>
-      <c r="E15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="2"/>
-        <v>-6.2385942405994292</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="3"/>
-        <v>3.3312629199899053</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="4"/>
-        <v>3.6067977499789698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9">
-        <f>IF(E15="&gt;",C15,G15+$B$4*(H15-G15))</f>
-        <v>3.4365078599613041</v>
-      </c>
-      <c r="C16" s="7">
-        <f>IF(E15="&lt;",B15,G15+$B$5*(H15-G15))</f>
-        <v>3.5015528100075706</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2459687481533077</v>
-      </c>
-      <c r="E16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="D15" s="9">
         <f t="shared" si="2"/>
         <v>-6.2499975887810812</v>
       </c>
-      <c r="G16" s="9">
+      <c r="E15" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.2385942405994292</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3312629199899053</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="6"/>
+        <v>3.6067977499789698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
         <v>3.4365078599613041</v>
       </c>
-      <c r="H16" s="7">
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5015528100075706</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.2459687481533077</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F16" s="9">
         <f t="shared" si="4"/>
+        <v>-6.2499975887810812</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4365078599613041</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="6"/>
         <v>3.6067977499789698</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
-      <c r="B17" s="9">
-        <f>IF(E16="&gt;",C16,G16+$B$4*(H16-G16))</f>
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
         <v>3.5015528100075706</v>
       </c>
-      <c r="C17" s="7">
-        <f>IF(E16="&lt;",B16,G16+$B$5*(H16-G16))</f>
+      <c r="C17" s="9">
+        <f t="shared" si="1"/>
         <v>3.541752799932703</v>
       </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2499975887810812</v>
-      </c>
-      <c r="E17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="2"/>
-        <v>-6.2482567036977805</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="3"/>
-        <v>3.4365078599613041</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="4"/>
-        <v>3.541752799932703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9">
-        <f>IF(E17="&gt;",C17,G17+$B$4*(H17-G17))</f>
-        <v>3.4767078498864361</v>
-      </c>
-      <c r="C18" s="7">
-        <f>IF(E17="&lt;",B17,G17+$B$5*(H17-G17))</f>
-        <v>3.5015528100075706</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2494574757430854</v>
-      </c>
-      <c r="E18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D17" s="9">
         <f t="shared" si="2"/>
         <v>-6.2499975887810812</v>
       </c>
-      <c r="G18" s="9">
+      <c r="E17" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.2482567036977805</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4365078599613041</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="6"/>
+        <v>3.541752799932703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
         <v>3.4767078498864361</v>
       </c>
-      <c r="H18" s="7">
+      <c r="C18" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5015528100075706</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.2494574757430854</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" si="4"/>
+        <v>-6.2499975887810812</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4767078498864361</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="6"/>
         <v>3.541752799932703</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
-      <c r="B19" s="9">
-        <f>IF(E18="&gt;",C18,G18+$B$4*(H18-G18))</f>
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
         <v>3.5015528100075706</v>
       </c>
-      <c r="C19" s="7">
-        <f>IF(E18="&lt;",B18,G18+$B$5*(H18-G18))</f>
+      <c r="C19" s="9">
+        <f t="shared" si="1"/>
         <v>3.5169078398115681</v>
       </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2499975887810812</v>
-      </c>
-      <c r="E19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="2"/>
-        <v>-6.2497141249529058</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="3"/>
-        <v>3.4767078498864361</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5169078398115681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>12</v>
-      </c>
-      <c r="B20" s="9">
-        <f>IF(E19="&gt;",C19,G19+$B$4*(H19-G19))</f>
-        <v>3.4920628796904332</v>
-      </c>
-      <c r="C20" s="7">
-        <f>IF(E19="&lt;",B19,G19+$B$5*(H19-G19))</f>
-        <v>3.5015528100075706</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2499370021211913</v>
-      </c>
-      <c r="E20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="D19" s="9">
         <f t="shared" si="2"/>
         <v>-6.2499975887810812</v>
       </c>
-      <c r="G20" s="9">
+      <c r="E19" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.2497141249529058</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4767078498864361</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="6"/>
+        <v>3.5169078398115681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
         <v>3.4920628796904332</v>
       </c>
-      <c r="H20" s="7">
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5015528100075706</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.2499370021211913</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" si="4"/>
+        <v>-6.2499975887810812</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4920628796904332</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="6"/>
         <v>3.5169078398115681</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
-      <c r="B21" s="9">
-        <f>IF(E20="&gt;",C20,G20+$B$4*(H20-G20))</f>
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
         <v>3.5015528100075706</v>
       </c>
-      <c r="C21" s="7">
-        <f>IF(E20="&lt;",B20,G20+$B$5*(H20-G20))</f>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
         <v>3.5074179094944302</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2499975887810812</v>
-      </c>
-      <c r="E21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="2"/>
-        <v>-6.2499449746187334</v>
-      </c>
-      <c r="G21" s="9">
-        <f t="shared" si="3"/>
-        <v>3.4920628796904332</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5074179094944302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9">
-        <f>IF(E21="&gt;",C21,G21+$B$4*(H21-G21))</f>
-        <v>3.4979279791772924</v>
-      </c>
-      <c r="C22" s="7">
-        <f>IF(E21="&lt;",B21,G21+$B$5*(H21-G21))</f>
-        <v>3.5015528100075706</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2499957067297114</v>
-      </c>
-      <c r="E22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="D21" s="9">
         <f t="shared" si="2"/>
         <v>-6.2499975887810812</v>
       </c>
-      <c r="G22" s="9">
+      <c r="E21" s="9" t="str">
         <f t="shared" si="3"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="4"/>
+        <v>-6.2499449746187334</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4920628796904332</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="6"/>
+        <v>3.5074179094944302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="0"/>
         <v>3.4979279791772924</v>
       </c>
-      <c r="H22" s="7">
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5015528100075706</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.2499957067297114</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" si="4"/>
+        <v>-6.2499975887810812</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4979279791772924</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="6"/>
         <v>3.5074179094944302</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
-      <c r="B23" s="9">
-        <f>IF(E22="&gt;",C22,G22+$B$4*(H22-G22))</f>
+      <c r="B23" s="10">
+        <f t="shared" si="0"/>
         <v>3.5015528100075706</v>
       </c>
-      <c r="C23" s="7">
-        <f>IF(E22="&lt;",B22,G22+$B$5*(H22-G22))</f>
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
         <v>3.5037930786641516</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
         <v>-6.2499975887810812</v>
       </c>
-      <c r="E23" s="7" t="str">
-        <f t="shared" si="1"/>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="2"/>
+      <c r="F23" s="9">
+        <f t="shared" si="4"/>
         <v>-6.2499856125542461</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <f>IF(E23="&gt;",B23,G22)</f>
         <v>3.4979279791772924</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" si="4"/>
+      <c r="H23" s="9">
+        <f t="shared" si="6"/>
         <v>3.5037930786641516</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y32"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>8</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="Y33"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
+        <f>(G33+H33)/2 - $B$30/2</f>
+        <v>3.95</v>
+      </c>
+      <c r="C34" s="9">
+        <f>(G33+H33)/2 + $B$30/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="D34" s="9">
+        <f>B34*B34 - 7*B34 + 6</f>
+        <v>-6.0475000000000012</v>
+      </c>
+      <c r="E34" s="9" t="str">
+        <f>IF(D34&lt;F34,"&lt;","&gt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="F34" s="9">
+        <f>C34*C34 - 7*C34 + 6</f>
+        <v>-5.947499999999998</v>
+      </c>
+      <c r="G34" s="9">
+        <f>IF(E34="&lt;", G33,B34)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <f>IF(E34="&gt;", H33, C34)</f>
+        <v>4.05</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="Y34"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" ref="B35:B41" si="7">(G34+H34)/2 - $B$30/2</f>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="C35" s="9">
+        <f>(G34+H34)/2 + $B$30/2</f>
+        <v>2.0749999999999997</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ref="D35:D41" si="8">B35*B35 - 7*B35 + 6</f>
+        <v>-3.9243749999999995</v>
+      </c>
+      <c r="E35" s="9" t="str">
+        <f t="shared" ref="E35:E41" si="9">IF(D35&lt;F35,"&lt;","&gt;")</f>
+        <v>&gt;</v>
+      </c>
+      <c r="F35" s="9">
+        <f>C35*C35 - 7*C35 + 6</f>
+        <v>-4.2193749999999994</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" ref="G35:G41" si="10">IF(E35="&lt;", G34,B35)</f>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" ref="H35:H41" si="11">IF(E35="&gt;", H34, C35)</f>
+        <v>4.05</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="Y35"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>3</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="7"/>
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" ref="C36:C41" si="12">(G35+H35)/2 + $B$30/2</f>
+        <v>3.0624999999999996</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="8"/>
+        <v>-5.9610937500000016</v>
+      </c>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36:F41" si="13">C36*C36 - 7*C36 + 6</f>
+        <v>-6.05859375</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="10"/>
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="11"/>
+        <v>4.05</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="Y36"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>4</v>
+      </c>
+      <c r="B37" s="14">
+        <f t="shared" si="7"/>
+        <v>3.4562499999999998</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="12"/>
+        <v>3.5562499999999995</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="8"/>
+        <v>-6.2480859374999991</v>
+      </c>
+      <c r="E37" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="13"/>
+        <v>-6.2468359375000002</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="10"/>
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="11"/>
+        <v>3.5562499999999995</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>5</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="7"/>
+        <v>3.2093749999999996</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="12"/>
+        <v>3.3093749999999993</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="8"/>
+        <v>-6.1655371093749984</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="13"/>
+        <v>-6.2136621093749991</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="10"/>
+        <v>3.2093749999999996</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="11"/>
+        <v>3.5562499999999995</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="Y38"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>6</v>
+      </c>
+      <c r="B39" s="9">
+        <f t="shared" si="7"/>
+        <v>3.3328124999999997</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" si="12"/>
+        <v>3.4328124999999994</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="8"/>
+        <v>-6.2220483398437505</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="13"/>
+        <v>-6.2454858398437487</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="10"/>
+        <v>3.3328124999999997</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="11"/>
+        <v>3.5562499999999995</v>
+      </c>
+      <c r="Y39"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>7</v>
+      </c>
+      <c r="B40" s="9">
+        <f t="shared" si="7"/>
+        <v>3.39453125</v>
+      </c>
+      <c r="C40" s="14">
+        <f t="shared" si="12"/>
+        <v>3.4945312499999996</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="8"/>
+        <v>-6.2388763427734375</v>
+      </c>
+      <c r="E40" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="13"/>
+        <v>-6.2499700927734363</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="10"/>
+        <v>3.39453125</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="11"/>
+        <v>3.5562499999999995</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Y40"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>8</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="7"/>
+        <v>3.4253906249999999</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="12"/>
+        <v>3.5253906249999996</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="8"/>
+        <v>-6.2444334411621103</v>
+      </c>
+      <c r="E41" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="13"/>
+        <v>-6.2493553161621094</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="10"/>
+        <v>3.4253906249999999</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="11"/>
+        <v>3.5562499999999995</v>
+      </c>
+      <c r="Y41"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y42"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y43"/>
+    </row>
+    <row r="44" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y45"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="7">
+        <v>16</v>
+      </c>
+      <c r="Y46"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Y47"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y48"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9">
+        <v>3</v>
+      </c>
+      <c r="F49" s="9">
+        <v>4</v>
+      </c>
+      <c r="G49" s="9">
+        <v>5</v>
+      </c>
+      <c r="H49" s="9">
+        <v>6</v>
+      </c>
+      <c r="I49" s="9">
+        <v>7</v>
+      </c>
+      <c r="J49" s="9">
+        <v>8</v>
+      </c>
+      <c r="K49" s="9">
+        <v>9</v>
+      </c>
+      <c r="L49" s="9">
+        <v>10</v>
+      </c>
+      <c r="M49" s="9">
+        <v>11</v>
+      </c>
+      <c r="N49" s="9">
+        <v>12</v>
+      </c>
+      <c r="O49" s="9">
+        <v>13</v>
+      </c>
+      <c r="P49" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>15</v>
+      </c>
+      <c r="R49" s="9">
+        <v>16</v>
+      </c>
+      <c r="Y49"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="9">
+        <f>8/9*C51 - $C$47/2</f>
+        <v>0.8388888888888888</v>
+      </c>
+      <c r="D50" s="9">
+        <f>8/9*D51 + $C$47/2</f>
+        <v>0.93888888888888888</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" ref="E50:Q50" si="14">8/9*E51 - $C$47/2</f>
+        <v>1.7277777777777776</v>
+      </c>
+      <c r="F50" s="9">
+        <f>8/9*F51 + $C$47/2</f>
+        <v>1.8277777777777777</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="14"/>
+        <v>2.6166666666666667</v>
+      </c>
+      <c r="H50" s="9">
+        <f>8/9*H51 + $C$47/2</f>
+        <v>2.7166666666666663</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="14"/>
+        <v>3.5055555555555555</v>
+      </c>
+      <c r="J50" s="9">
+        <f>8/9*J51 + $C$47/2</f>
+        <v>3.6055555555555552</v>
+      </c>
+      <c r="K50" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3944444444444448</v>
+      </c>
+      <c r="L50" s="9">
+        <f>8/9*L51 + $C$47/2</f>
+        <v>4.4944444444444445</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="14"/>
+        <v>5.2833333333333332</v>
+      </c>
+      <c r="N50" s="9">
+        <f>8/9*N51 + $C$47/2</f>
+        <v>5.3833333333333329</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="14"/>
+        <v>6.1722222222222216</v>
+      </c>
+      <c r="P50" s="9">
+        <f>8/9*P51 + $C$47/2</f>
+        <v>6.2722222222222213</v>
+      </c>
+      <c r="Q50" s="9">
+        <f t="shared" si="14"/>
+        <v>7.0611111111111109</v>
+      </c>
+      <c r="R50" s="9">
+        <f>8/9*R51 + $C$47/2</f>
+        <v>7.1611111111111105</v>
+      </c>
+      <c r="Y50"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2</v>
+      </c>
+      <c r="G51" s="9">
+        <v>3</v>
+      </c>
+      <c r="H51" s="9">
+        <v>3</v>
+      </c>
+      <c r="I51" s="9">
+        <v>4</v>
+      </c>
+      <c r="J51" s="9">
+        <v>4</v>
+      </c>
+      <c r="K51" s="9">
+        <v>5</v>
+      </c>
+      <c r="L51" s="9">
+        <v>5</v>
+      </c>
+      <c r="M51" s="9">
+        <v>6</v>
+      </c>
+      <c r="N51" s="9">
+        <v>6</v>
+      </c>
+      <c r="O51" s="9">
+        <v>7</v>
+      </c>
+      <c r="P51" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>8</v>
+      </c>
+      <c r="R51" s="9">
+        <v>8</v>
+      </c>
+      <c r="Y51"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="9">
+        <f>C50*C50 - 7*C50 + 6</f>
+        <v>0.83151234567901255</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" ref="D52:R52" si="15">D50*D50 - 7*D50 + 6</f>
+        <v>0.30929012345679041</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="15"/>
+        <v>-3.1092283950617272</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="15"/>
+        <v>-3.4536728395061722</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" si="15"/>
+        <v>-5.4697222222222219</v>
+      </c>
+      <c r="H52" s="9">
+        <f t="shared" si="15"/>
+        <v>-5.6363888888888898</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="15"/>
+        <v>-6.249969135802468</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="15"/>
+        <v>-6.2388580246913588</v>
+      </c>
+      <c r="K52" s="9">
+        <f t="shared" si="15"/>
+        <v>-5.4499691358024691</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="15"/>
+        <v>-5.2610802469135827</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="15"/>
+        <v>-3.0697222222222251</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" si="15"/>
+        <v>-2.703055555555558</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="15"/>
+        <v>0.89077160493827279</v>
+      </c>
+      <c r="P52" s="9">
+        <f t="shared" si="15"/>
+        <v>1.43521604938271</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="15"/>
+        <v>6.4315123456790104</v>
+      </c>
+      <c r="R52" s="9">
+        <f t="shared" si="15"/>
+        <v>7.1537345679012319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2</v>
+      </c>
+      <c r="E61" s="9">
+        <v>3</v>
+      </c>
+      <c r="F61" s="9">
+        <v>4</v>
+      </c>
+      <c r="G61" s="9">
+        <v>5</v>
+      </c>
+      <c r="H61" s="9">
+        <v>6</v>
+      </c>
+      <c r="I61" s="9">
+        <v>7</v>
+      </c>
+      <c r="J61" s="9">
+        <v>8</v>
+      </c>
+      <c r="K61" s="9">
+        <v>9</v>
+      </c>
+      <c r="L61" s="9">
+        <v>10</v>
+      </c>
+      <c r="M61" s="9">
+        <v>11</v>
+      </c>
+      <c r="N61" s="9">
+        <v>12</v>
+      </c>
+      <c r="O61" s="9">
+        <v>13</v>
+      </c>
+      <c r="P61" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>15</v>
+      </c>
+      <c r="R61" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="15">
+        <f>4/9 * C63</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D62" s="15">
+        <f t="shared" ref="D62:R62" si="16">4/9 * D63</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E62" s="15">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="16"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="16"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H62" s="15">
+        <f t="shared" si="16"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="I62" s="15">
+        <f t="shared" si="16"/>
+        <v>3.1111111111111107</v>
+      </c>
+      <c r="J62" s="15">
+        <f t="shared" si="16"/>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="K62" s="15">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L62" s="15">
+        <f t="shared" si="16"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="M62" s="15">
+        <f t="shared" si="16"/>
+        <v>4.8888888888888884</v>
+      </c>
+      <c r="N62" s="15">
+        <f t="shared" si="16"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="O62" s="15">
+        <f t="shared" si="16"/>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="P62" s="15">
+        <f t="shared" si="16"/>
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="Q62" s="15">
+        <f t="shared" si="16"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="R62" s="15">
+        <f t="shared" si="16"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2</v>
+      </c>
+      <c r="E63" s="9">
+        <v>3</v>
+      </c>
+      <c r="F63" s="9">
+        <v>4</v>
+      </c>
+      <c r="G63" s="9">
+        <v>5</v>
+      </c>
+      <c r="H63" s="9">
+        <v>6</v>
+      </c>
+      <c r="I63" s="9">
+        <v>7</v>
+      </c>
+      <c r="J63" s="9">
+        <v>8</v>
+      </c>
+      <c r="K63" s="9">
+        <v>9</v>
+      </c>
+      <c r="L63" s="9">
+        <v>10</v>
+      </c>
+      <c r="M63" s="9">
+        <v>11</v>
+      </c>
+      <c r="N63" s="9">
+        <v>12</v>
+      </c>
+      <c r="O63" s="9">
+        <v>13</v>
+      </c>
+      <c r="P63" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>15</v>
+      </c>
+      <c r="R63" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="15">
+        <f>C62*C62 - 7*C62 + 6</f>
+        <v>3.0864197530864201</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" ref="D64:R64" si="17">D62*D62 - 7*D62 + 6</f>
+        <v>0.56790123456790198</v>
+      </c>
+      <c r="E64" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.5555555555555545</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="17"/>
+        <v>-3.2839506172839492</v>
+      </c>
+      <c r="G64" s="15">
+        <f t="shared" si="17"/>
+        <v>-4.6172839506172849</v>
+      </c>
+      <c r="H64" s="15">
+        <f t="shared" si="17"/>
+        <v>-5.5555555555555536</v>
+      </c>
+      <c r="I64" s="15">
+        <f t="shared" si="17"/>
+        <v>-6.0987654320987659</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="17"/>
+        <v>-6.2469135802469111</v>
+      </c>
+      <c r="K64" s="15">
+        <f t="shared" si="17"/>
+        <v>-6</v>
+      </c>
+      <c r="L64" s="15">
+        <f t="shared" si="17"/>
+        <v>-5.3580246913580254</v>
+      </c>
+      <c r="M64" s="15">
+        <f t="shared" si="17"/>
+        <v>-4.3209876543209909</v>
+      </c>
+      <c r="N64" s="15">
+        <f t="shared" si="17"/>
+        <v>-2.8888888888888857</v>
+      </c>
+      <c r="O64" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.0617283950617278</v>
+      </c>
+      <c r="P64" s="15">
+        <f t="shared" si="17"/>
+        <v>1.1604938271604865</v>
+      </c>
+      <c r="Q64" s="15">
+        <f t="shared" si="17"/>
+        <v>3.7777777777777715</v>
+      </c>
+      <c r="R64" s="15">
+        <f t="shared" si="17"/>
+        <v>6.790123456790127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="72" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="7">
+        <v>16</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E76"/>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11">
+        <v>8</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E77"/>
+      <c r="F77" s="11">
+        <v>1</v>
+      </c>
+      <c r="G77" s="16">
+        <f>$L76+H111/H113*($M76-$L76)-POWER(-1,$H$4-$F77+1)/H113*$H$5</f>
+        <v>3.055729492798998</v>
+      </c>
+      <c r="H77" s="11">
+        <f>$L76+H112/H113*($M76-$L76)+POWER(-1,$H$4-$F77+1)/H113*$H$5</f>
+        <v>4.9442705072010016</v>
+      </c>
+      <c r="I77" s="11">
+        <f>G77*G77 - 7*G77 + 6</f>
+        <v>-6.0526237164313628</v>
+      </c>
+      <c r="J77" s="11" t="str">
+        <f>IF(I77&gt;K77, "&gt;", "&lt;")</f>
+        <v>&lt;</v>
+      </c>
+      <c r="K77" s="11">
+        <f>H77*H77 - 7*H77 + 6</f>
+        <v>-4.1640827020293578</v>
+      </c>
+      <c r="L77" s="16">
+        <f>IF(J77="&gt;",G77,L76)</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="11">
+        <f>IF(J77="&lt;",H77,M76)</f>
+        <v>4.9442705072010016</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E78"/>
+      <c r="F78" s="11">
+        <v>2</v>
+      </c>
+      <c r="G78" s="16">
+        <f>IF(J77="&gt;",H77,$L77+H110/H112*($M77-$L77)-POWER(-1,$H$4-$F78+1)/H112*$H$5)</f>
+        <v>1.8885410144020036</v>
+      </c>
+      <c r="H78" s="11">
+        <f>IF(J93="&lt;",G77,$L77+H111/H112*($M77-$L77)+POWER(-1,$H$4-$F78+1)/H112*$H$5)</f>
+        <v>3.0557294927989975</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" ref="I78:I91" si="18">G78*G78 - 7*G78 + 6</f>
+        <v>-3.6531999377354776</v>
+      </c>
+      <c r="J78" s="11" t="str">
+        <f t="shared" ref="J78:J91" si="19">IF(I78&gt;K78, "&gt;", "&lt;")</f>
+        <v>&gt;</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" ref="K78:K91" si="20">H78*H78 - 7*H78 + 6</f>
+        <v>-6.0526237164313663</v>
+      </c>
+      <c r="L78" s="16">
+        <f t="shared" ref="L78:L91" si="21">IF(J78="&gt;",G78,L77)</f>
+        <v>1.8885410144020036</v>
+      </c>
+      <c r="M78" s="11">
+        <f t="shared" ref="M78:M91" si="22">IF(J78="&lt;",H78,M77)</f>
+        <v>4.9442705072010016</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E79"/>
+      <c r="F79" s="11">
+        <v>3</v>
+      </c>
+      <c r="G79" s="16">
+        <f>IF(J78="&gt;",H78,$L78+H109/H111*($M78-$L78)-POWER(-1,$H$4-$F79+1)/H111*$H$5)</f>
+        <v>3.0557294927989975</v>
+      </c>
+      <c r="H79" s="11">
+        <f>IF(F131="&lt;",G78,$L78+H110/H111*($M78-$L78)+POWER(-1,$H$4-$F79+1)/H111*$H$5)</f>
+        <v>3.7770820288040072</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.0526237164313663</v>
+      </c>
+      <c r="J79" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&gt;</v>
+      </c>
+      <c r="K79" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.173225549313857</v>
+      </c>
+      <c r="L79" s="16">
+        <f t="shared" si="21"/>
+        <v>3.0557294927989975</v>
+      </c>
+      <c r="M79" s="11">
+        <f t="shared" si="22"/>
+        <v>4.9442705072010016</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E80"/>
+      <c r="F80" s="11">
+        <v>4</v>
+      </c>
+      <c r="G80" s="16">
+        <f>IF(J79="&gt;",H79,$L79+H108/H110*($M79-$L79)-POWER(-1,$H$4-$F80+1)/H110*$H$5)</f>
+        <v>3.7770820288040072</v>
+      </c>
+      <c r="H80" s="11">
+        <f>IF(F132="&lt;",G79,$L79+H109/H110*($M79-$L79)+POWER(-1,$H$4-$F80+1)/H110*$H$5)</f>
+        <v>4.2229179711959919</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.173225549313857</v>
+      </c>
+      <c r="J80" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K80" s="11">
+        <f t="shared" si="20"/>
+        <v>-5.7273896069218715</v>
+      </c>
+      <c r="L80" s="16">
+        <f t="shared" si="21"/>
+        <v>3.0557294927989975</v>
+      </c>
+      <c r="M80" s="11">
+        <f t="shared" si="22"/>
+        <v>4.2229179711959919</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80"/>
+      <c r="W80"/>
+    </row>
+    <row r="81" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E81"/>
+      <c r="F81" s="11">
+        <v>5</v>
+      </c>
+      <c r="G81" s="16">
+        <f>IF(J80="&gt;",H80,$L80+H107/H109*($M80-$L80)-POWER(-1,$H$4-$F81+1)/H109*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="H81" s="11">
+        <f>IF(F133="&lt;",G80,$L80+H108/H109*($M80-$L80)+POWER(-1,$H$4-$F81+1)/H109*$H$5)</f>
+        <v>3.7770820288040072</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="J81" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K81" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.173225549313857</v>
+      </c>
+      <c r="L81" s="16">
+        <f t="shared" si="21"/>
+        <v>3.0557294927989975</v>
+      </c>
+      <c r="M81" s="11">
+        <f t="shared" si="22"/>
+        <v>3.7770820288040072</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="23"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+    </row>
+    <row r="82" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E82"/>
+      <c r="F82" s="11">
+        <v>6</v>
+      </c>
+      <c r="G82" s="16">
+        <f>IF(J81="&gt;",H81,$L81+H106/H108*($M81-$L81)-POWER(-1,$H$4-$F82+1)/H108*$H$5)</f>
+        <v>3.3312460864120221</v>
+      </c>
+      <c r="H82" s="11">
+        <f>IF(F134="&lt;",G81,$L81+H107/H108*($M81-$L81)+POWER(-1,$H$4-$F82+1)/H108*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="I82" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2215221166487407</v>
+      </c>
+      <c r="J82" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&gt;</v>
+      </c>
+      <c r="K82" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="L82" s="16">
+        <f t="shared" si="21"/>
+        <v>3.3312460864120221</v>
+      </c>
+      <c r="M82" s="11">
+        <f t="shared" si="22"/>
+        <v>3.7770820288040072</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+    </row>
+    <row r="83" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E83"/>
+      <c r="F83" s="11">
+        <v>7</v>
+      </c>
+      <c r="G83" s="16">
+        <f>IF(J82="&gt;",H82,$L82+H105/H107*($M82-$L82)-POWER(-1,$H$4-$F83+1)/H107*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="H83" s="11">
+        <f>IF(F135="&lt;",G82,$L82+H106/H107*($M82-$L82)+POWER(-1,$H$4-$F83+1)/H107*$H$5)</f>
+        <v>3.6067626800250467</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="J83" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K83" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2386017301538708</v>
+      </c>
+      <c r="L83" s="16">
+        <f t="shared" si="21"/>
+        <v>3.3312460864120221</v>
+      </c>
+      <c r="M83" s="11">
+        <f t="shared" si="22"/>
+        <v>3.6067626800250467</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="23"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+    </row>
+    <row r="84" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E84"/>
+      <c r="F84" s="11">
+        <v>8</v>
+      </c>
+      <c r="G84" s="16">
+        <f>IF(J83="&gt;",H83,$L83+H104/H106*($M83-$L83)-POWER(-1,$H$4-$F84+1)/H106*$H$5)</f>
+        <v>3.4364433312460863</v>
+      </c>
+      <c r="H84" s="11">
+        <f>IF(F136="&lt;",G83,$L83+H105/H106*($M83-$L83)+POWER(-1,$H$4-$F84+1)/H106*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="I84" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2459605498569069</v>
+      </c>
+      <c r="J84" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&gt;</v>
+      </c>
+      <c r="K84" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="L84" s="16">
+        <f t="shared" si="21"/>
+        <v>3.4364433312460863</v>
+      </c>
+      <c r="M84" s="11">
+        <f t="shared" si="22"/>
+        <v>3.6067626800250467</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+    </row>
+    <row r="85" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E85"/>
+      <c r="F85" s="11">
+        <v>9</v>
+      </c>
+      <c r="G85" s="16">
+        <f>IF(J84="&gt;",H84,$L84+H103/H105*($M84-$L84)-POWER(-1,$H$4-$F85+1)/H105*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="H85" s="11">
+        <f>IF(F137="&lt;",G84,$L84+H104/H105*($M84-$L84)+POWER(-1,$H$4-$F85+1)/H105*$H$5)</f>
+        <v>3.5416405760801499</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="J85" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K85" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2482660624237152</v>
+      </c>
+      <c r="L85" s="16">
+        <f t="shared" si="21"/>
+        <v>3.4364433312460863</v>
+      </c>
+      <c r="M85" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5416405760801499</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+    </row>
+    <row r="86" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E86"/>
+      <c r="F86" s="11">
+        <v>10</v>
+      </c>
+      <c r="G86" s="16">
+        <f>IF(J85="&gt;",H85,$L85+H102/H104*($M85-$L85)-POWER(-1,$H$4-$F86+1)/H104*$H$5)</f>
+        <v>3.4765184721352536</v>
+      </c>
+      <c r="H86" s="11">
+        <f>IF(F138="&lt;",G85,$L85+H103/H104*($M85-$L85)+POWER(-1,$H$4-$F86+1)/H104*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2494486178491364</v>
+      </c>
+      <c r="J86" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&gt;</v>
+      </c>
+      <c r="K86" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="L86" s="16">
+        <f t="shared" si="21"/>
+        <v>3.4765184721352536</v>
+      </c>
+      <c r="M86" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5416405760801499</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86"/>
+      <c r="W86"/>
+    </row>
+    <row r="87" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E87"/>
+      <c r="F87" s="11">
+        <v>11</v>
+      </c>
+      <c r="G87" s="16">
+        <f>IF(J86="&gt;",H86,$L86+H101/H103*($M86-$L86)-POWER(-1,$H$4-$F87+1)/H103*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="H87" s="11">
+        <f>IF(F139="&lt;",G86,$L86+H102/H103*($M86-$L86)+POWER(-1,$H$4-$F87+1)/H103*$H$5)</f>
+        <v>3.5165936130244204</v>
+      </c>
+      <c r="I87" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="J87" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K87" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2497246520067975</v>
+      </c>
+      <c r="L87" s="11">
+        <f t="shared" si="21"/>
+        <v>3.4765184721352536</v>
+      </c>
+      <c r="M87" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5165936130244204</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+    </row>
+    <row r="88" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E88"/>
+      <c r="F88" s="11">
+        <v>12</v>
+      </c>
+      <c r="G88" s="16">
+        <f>IF(J87="&gt;",H87,$L87+H100/H102*($M87-$L87)-POWER(-1,$H$4-$F88+1)/H102*$H$5)</f>
+        <v>3.4915466499686909</v>
+      </c>
+      <c r="H88" s="11">
+        <f>IF(F140="&lt;",G87,$L87+H101/H102*($M87-$L87)+POWER(-1,$H$4-$F88+1)/H102*$H$5)</f>
+        <v>3.5015654351909831</v>
+      </c>
+      <c r="I88" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.249928540873249</v>
+      </c>
+      <c r="J88" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&gt;</v>
+      </c>
+      <c r="K88" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2499975494126634</v>
+      </c>
+      <c r="L88" s="11">
+        <f t="shared" si="21"/>
+        <v>3.4915466499686909</v>
+      </c>
+      <c r="M88" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5165936130244204</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+    </row>
+    <row r="89" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E89"/>
+      <c r="F89" s="11">
+        <v>13</v>
+      </c>
+      <c r="G89" s="16">
+        <f>IF(J88="&gt;",H88,$L88+H99/H101*($M88-$L88)-POWER(-1,$H$4-$F89+1)/H101*$H$5)</f>
+        <v>3.5015654351909831</v>
+      </c>
+      <c r="H89" s="11">
+        <f>IF(F141="&lt;",G88,$L88+H100/H101*($M88-$L88)+POWER(-1,$H$4-$F89+1)/H101*$H$5)</f>
+        <v>3.5065748278021287</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2499975494126634</v>
+      </c>
+      <c r="J89" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K89" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.249956771639372</v>
+      </c>
+      <c r="L89" s="11">
+        <f t="shared" si="21"/>
+        <v>3.4915466499686909</v>
+      </c>
+      <c r="M89" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5065748278021287</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+    </row>
+    <row r="90" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E90"/>
+      <c r="F90" s="11">
+        <v>14</v>
+      </c>
+      <c r="G90" s="12">
+        <f>IF(J89="&gt;",H89,$L89+H98/H100*($M89-$L89)-POWER(-1,$H$4-$F90+1)/H100*$H$5)</f>
+        <v>3.496556042579837</v>
+      </c>
+      <c r="H90" s="11">
+        <f>IF(F142="&lt;",G89,$L89+H99/H100*($M89-$L89)+POWER(-1,$H$4-$F90+1)/H100*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="I90" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2499881391572885</v>
+      </c>
+      <c r="J90" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&gt;</v>
+      </c>
+      <c r="K90" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="L90" s="11">
+        <f t="shared" si="21"/>
+        <v>3.496556042579837</v>
+      </c>
+      <c r="M90" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5065748278021287</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+    </row>
+    <row r="91" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E91"/>
+      <c r="F91" s="11">
+        <v>15</v>
+      </c>
+      <c r="G91" s="17">
+        <f>IF(J90="&gt;",H90,$L90+H97/H99*($M90-$L90)-POWER(-1,$H$4-$F91+1)/H99*$H$5)</f>
+        <v>3.5015654351909826</v>
+      </c>
+      <c r="H91" s="12">
+        <f>IF(F143="&lt;",G90,$L90+H98/H99*($M90-$L90)+POWER(-1,$H$4-$F91+1)/H99*$H$5)</f>
+        <v>3.5015654351909831</v>
+      </c>
+      <c r="I91" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.2499975494126616</v>
+      </c>
+      <c r="J91" s="11" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K91" s="11">
+        <f t="shared" si="20"/>
+        <v>-6.2499975494126634</v>
+      </c>
+      <c r="L91" s="11">
+        <f t="shared" si="21"/>
+        <v>3.496556042579837</v>
+      </c>
+      <c r="M91" s="11">
+        <f t="shared" si="22"/>
+        <v>3.5015654351909831</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+    </row>
+    <row r="92" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+    </row>
+    <row r="93" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+    </row>
+    <row r="94" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+    </row>
+    <row r="95" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+    </row>
+    <row r="96" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+    </row>
+    <row r="97" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>1</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+    </row>
+    <row r="98" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98" s="11">
+        <v>1</v>
+      </c>
+      <c r="H98" s="11">
+        <f>H96+H97</f>
+        <v>1</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+    </row>
+    <row r="99" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99" s="11">
+        <v>2</v>
+      </c>
+      <c r="H99" s="11">
+        <f>H97+H98</f>
+        <v>2</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+    </row>
+    <row r="100" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100" s="11">
+        <v>3</v>
+      </c>
+      <c r="H100" s="11">
+        <f t="shared" ref="H100:H114" si="23">H98+H99</f>
+        <v>3</v>
+      </c>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+    </row>
+    <row r="101" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101" s="11">
+        <v>4</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+    </row>
+    <row r="102" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102" s="11">
+        <v>5</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+    </row>
+    <row r="103" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103" s="11">
+        <v>6</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+    </row>
+    <row r="104" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104" s="11">
+        <v>7</v>
+      </c>
+      <c r="H104" s="11">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+    </row>
+    <row r="105" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105" s="11">
+        <v>8</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" si="23"/>
+        <v>34</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+    </row>
+    <row r="106" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" s="11">
+        <v>9</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+    </row>
+    <row r="107" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" s="11">
+        <v>10</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="23"/>
+        <v>89</v>
+      </c>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+    </row>
+    <row r="108" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108" s="11">
+        <v>11</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+    </row>
+    <row r="109" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109" s="11">
+        <v>12</v>
+      </c>
+      <c r="H109" s="11">
+        <f t="shared" si="23"/>
+        <v>233</v>
+      </c>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+    </row>
+    <row r="110" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110" s="11">
+        <v>13</v>
+      </c>
+      <c r="H110" s="11">
+        <f t="shared" si="23"/>
+        <v>377</v>
+      </c>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+    </row>
+    <row r="111" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111" s="11">
+        <v>14</v>
+      </c>
+      <c r="H111" s="11">
+        <f t="shared" si="23"/>
+        <v>610</v>
+      </c>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+    </row>
+    <row r="112" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112" s="11">
+        <v>15</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="23"/>
+        <v>987</v>
+      </c>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+    </row>
+    <row r="113" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113" s="11">
+        <v>16</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="23"/>
+        <v>1597</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+    </row>
+    <row r="114" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114" s="11">
+        <v>17</v>
+      </c>
+      <c r="H114" s="11">
+        <f t="shared" si="23"/>
+        <v>2584</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+    </row>
+    <row r="115" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="25">
     <mergeCell ref="L9:S9"/>
     <mergeCell ref="L7:S7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="A72:XFD72"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="P81:S81"/>
+    <mergeCell ref="P82:S82"/>
+    <mergeCell ref="P83:S83"/>
+    <mergeCell ref="P86:U86"/>
+    <mergeCell ref="P78:V78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1285,10 +3890,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1536E-A1D0-4E8B-BC2C-1B32967FE079}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR4/LR4.xlsx
+++ b/LR4/LR4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Уник\МОптим\LR4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE3DB9-9DAB-4C7F-92A6-EF14028D50EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B3D99-9F09-4A99-81A0-FA9C5ADE6B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -172,19 +172,19 @@
     <t>Числа Фибоначчи</t>
   </si>
   <si>
-    <t>a(15) = 3,496556 -&gt; f(a(15)) = -6,25</t>
-  </si>
-  <si>
-    <t>b(15) = 3,5015654 -&gt; f(b(15)) = -6,25</t>
-  </si>
-  <si>
-    <t>x2(15) = 3,5015654 -&gt; f(x2(15)) = -6,25</t>
-  </si>
-  <si>
-    <t>Ответ: Δ = [3,496556 ; 3,5015654], X = 3,5015654, f = -6,25</t>
-  </si>
-  <si>
     <t>Точка минимума локализирована на отрезке [3,496556; 3,5015654]</t>
+  </si>
+  <si>
+    <t>a(15) = 3,619036 -&gt; f(a(15)) = -6,25</t>
+  </si>
+  <si>
+    <t>b(15) = 3,7004383 -&gt; f(b(15)) = -6,20982</t>
+  </si>
+  <si>
+    <t>x2(15) = 3,7004383 -&gt; f(x2(15)) = -6,20982</t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [3,619036 ; 3,70044383], X = 3,70044383, f = -6,20982</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,10 +342,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DCCB0-9C58-468D-AED0-D45510B4B5C4}">
   <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,8 +895,8 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
@@ -896,10 +906,10 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -944,16 +954,16 @@
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -1013,16 +1023,16 @@
         <f>IF(E9="&lt;",C9,H8)</f>
         <v>4.9442719099991592</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1486,8 +1496,8 @@
         <v>3.5037930786641516</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1516,15 +1526,15 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -1578,12 +1588,12 @@
       <c r="H33" s="9">
         <v>8</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
       <c r="Y33"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -1618,12 +1628,12 @@
         <f>IF(E34="&gt;", H33, C34)</f>
         <v>4.05</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
       <c r="Y34"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -1661,12 +1671,12 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
       <c r="Y35"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -1701,12 +1711,12 @@
         <f t="shared" si="11"/>
         <v>4.05</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
       <c r="Y36"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -1741,12 +1751,12 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
       <c r="Y37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -1781,12 +1791,12 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
       <c r="Y38"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -1855,15 +1865,15 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
       <c r="Y40"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -1906,8 +1916,8 @@
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y43"/>
     </row>
-    <row r="44" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2186,25 +2196,25 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -2462,28 +2472,28 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="72" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="72" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2596,16 +2606,16 @@
         <v>1</v>
       </c>
       <c r="G77" s="16">
-        <f>$L76+H111/H113*($M76-$L76)-POWER(-1,$H$4-$F77+1)/H113*$H$5</f>
-        <v>3.055729492798998</v>
+        <f>$L76+H99/H97*($M76-$L76)-POWER(-1,$C$74-$F77+1)/H97*$C$75</f>
+        <v>3.0556042579837195</v>
       </c>
       <c r="H77" s="11">
-        <f>$L76+H112/H113*($M76-$L76)+POWER(-1,$H$4-$F77+1)/H113*$H$5</f>
-        <v>4.9442705072010016</v>
+        <f>$L76+H98/H97*($M76-$L76)+POWER(-1,$C$74-$F77+1)/H97*$C$75</f>
+        <v>4.9443957420162805</v>
       </c>
       <c r="I77" s="11">
         <f>G77*G77 - 7*G77 + 6</f>
-        <v>-6.0526237164313628</v>
+        <v>-6.0525124244777988</v>
       </c>
       <c r="J77" s="11" t="str">
         <f>IF(I77&gt;K77, "&gt;", "&lt;")</f>
@@ -2613,7 +2623,7 @@
       </c>
       <c r="K77" s="11">
         <f>H77*H77 - 7*H77 + 6</f>
-        <v>-4.1640827020293578</v>
+        <v>-4.1637209404452342</v>
       </c>
       <c r="L77" s="16">
         <f>IF(J77="&gt;",G77,L76)</f>
@@ -2621,7 +2631,7 @@
       </c>
       <c r="M77" s="11">
         <f>IF(J77="&lt;",H77,M76)</f>
-        <v>4.9442705072010016</v>
+        <v>4.9443957420162805</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -2636,44 +2646,44 @@
         <v>2</v>
       </c>
       <c r="G78" s="16">
-        <f>IF(J77="&gt;",H77,$L77+H110/H112*($M77-$L77)-POWER(-1,$H$4-$F78+1)/H112*$H$5)</f>
-        <v>1.8885410144020036</v>
+        <f t="shared" ref="G78:G91" si="18">IF(J77="&gt;",H77,$L77+H100/H98*($M77-$L77)-POWER(-1,$C$74-$F78+1)/H98*$C$75)</f>
+        <v>1.888791484032561</v>
       </c>
       <c r="H78" s="11">
-        <f>IF(J93="&lt;",G77,$L77+H111/H112*($M77-$L77)+POWER(-1,$H$4-$F78+1)/H112*$H$5)</f>
-        <v>3.0557294927989975</v>
+        <f>IF(J93="&lt;",G77,$L77+H99/H98*($M77-$L77)+POWER(-1,$C$74-$F78+1)/H98*$C$75)</f>
+        <v>3.0556042579837195</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" ref="I78:I91" si="18">G78*G78 - 7*G78 + 6</f>
-        <v>-3.6531999377354776</v>
+        <f t="shared" ref="I78:I91" si="19">G78*G78 - 7*G78 + 6</f>
+        <v>-3.6540071180740021</v>
       </c>
       <c r="J78" s="11" t="str">
-        <f t="shared" ref="J78:J91" si="19">IF(I78&gt;K78, "&gt;", "&lt;")</f>
+        <f t="shared" ref="J78:J91" si="20">IF(I78&gt;K78, "&gt;", "&lt;")</f>
         <v>&gt;</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" ref="K78:K91" si="20">H78*H78 - 7*H78 + 6</f>
-        <v>-6.0526237164313663</v>
+        <f t="shared" ref="K78:K91" si="21">H78*H78 - 7*H78 + 6</f>
+        <v>-6.0525124244777988</v>
       </c>
       <c r="L78" s="16">
-        <f t="shared" ref="L78:L91" si="21">IF(J78="&gt;",G78,L77)</f>
-        <v>1.8885410144020036</v>
+        <f t="shared" ref="L78:L91" si="22">IF(J78="&gt;",G78,L77)</f>
+        <v>1.888791484032561</v>
       </c>
       <c r="M78" s="11">
-        <f t="shared" ref="M78:M91" si="22">IF(J78="&lt;",H78,M77)</f>
-        <v>4.9442705072010016</v>
+        <f t="shared" ref="M78:M91" si="23">IF(J78="&lt;",H78,M77)</f>
+        <v>4.9443957420162805</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="P78" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
+      <c r="P78" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
       <c r="W78"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -2682,32 +2692,32 @@
         <v>3</v>
       </c>
       <c r="G79" s="16">
-        <f>IF(J78="&gt;",H78,$L78+H109/H111*($M78-$L78)-POWER(-1,$H$4-$F79+1)/H111*$H$5)</f>
-        <v>3.0557294927989975</v>
-      </c>
-      <c r="H79" s="11">
-        <f>IF(F131="&lt;",G78,$L78+H110/H111*($M78-$L78)+POWER(-1,$H$4-$F79+1)/H111*$H$5)</f>
-        <v>3.7770820288040072</v>
+        <f t="shared" si="18"/>
+        <v>3.0556042579837195</v>
+      </c>
+      <c r="H79" s="18">
+        <f t="shared" ref="H79:H91" si="24">IF(J94="&lt;",G78,$L78+H100/H99*($M78-$L78)+POWER(-1,$C$74-$F79+1)/H99*$C$75)</f>
+        <v>3.7775829680651221</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.0526237164313663</v>
+        <f t="shared" si="19"/>
+        <v>-6.0525124244777988</v>
       </c>
       <c r="J79" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&gt;</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.173225549313857</v>
+        <f t="shared" si="21"/>
+        <v>-6.1729476958401577</v>
       </c>
       <c r="L79" s="16">
-        <f t="shared" si="21"/>
-        <v>3.0557294927989975</v>
+        <f t="shared" si="22"/>
+        <v>3.0556042579837195</v>
       </c>
       <c r="M79" s="11">
-        <f t="shared" si="22"/>
-        <v>4.9442705072010016</v>
+        <f t="shared" si="23"/>
+        <v>4.9443957420162805</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
@@ -2726,40 +2736,40 @@
         <v>4</v>
       </c>
       <c r="G80" s="16">
-        <f>IF(J79="&gt;",H79,$L79+H108/H110*($M79-$L79)-POWER(-1,$H$4-$F80+1)/H110*$H$5)</f>
-        <v>3.7770820288040072</v>
-      </c>
-      <c r="H80" s="11">
-        <f>IF(F132="&lt;",G79,$L79+H109/H110*($M79-$L79)+POWER(-1,$H$4-$F80+1)/H110*$H$5)</f>
-        <v>4.2229179711959919</v>
+        <f t="shared" si="18"/>
+        <v>3.7775829680651221</v>
+      </c>
+      <c r="H80" s="18">
+        <f t="shared" si="24"/>
+        <v>4.2224170319348779</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.173225549313857</v>
+        <f t="shared" si="19"/>
+        <v>-6.1729476958401577</v>
       </c>
       <c r="J80" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="20"/>
-        <v>-5.7273896069218715</v>
+        <f t="shared" si="21"/>
+        <v>-5.7281136319704018</v>
       </c>
       <c r="L80" s="16">
-        <f t="shared" si="21"/>
-        <v>3.0557294927989975</v>
+        <f t="shared" si="22"/>
+        <v>3.0556042579837195</v>
       </c>
       <c r="M80" s="11">
-        <f t="shared" si="22"/>
-        <v>4.2229179711959919</v>
+        <f t="shared" si="23"/>
+        <v>4.2224170319348779</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
       <c r="V80"/>
       <c r="W80"/>
     </row>
@@ -2769,41 +2779,41 @@
         <v>5</v>
       </c>
       <c r="G81" s="16">
-        <f>IF(J80="&gt;",H80,$L80+H107/H109*($M80-$L80)-POWER(-1,$H$4-$F81+1)/H109*$H$5)</f>
-        <v>3.5015654351909826</v>
-      </c>
-      <c r="H81" s="11">
-        <f>IF(F133="&lt;",G80,$L80+H108/H109*($M80-$L80)+POWER(-1,$H$4-$F81+1)/H109*$H$5)</f>
-        <v>3.7770820288040072</v>
+        <f t="shared" si="18"/>
+        <v>3.5004383218534754</v>
+      </c>
+      <c r="H81" s="18">
+        <f t="shared" si="24"/>
+        <v>3.7775829680651221</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="19"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="J81" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.173225549313857</v>
+        <f t="shared" si="21"/>
+        <v>-6.1729476958401577</v>
       </c>
       <c r="L81" s="16">
-        <f t="shared" si="21"/>
-        <v>3.0557294927989975</v>
+        <f t="shared" si="22"/>
+        <v>3.0556042579837195</v>
       </c>
       <c r="M81" s="11">
-        <f t="shared" si="22"/>
-        <v>3.7770820288040072</v>
+        <f t="shared" si="23"/>
+        <v>3.7775829680651221</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
-      <c r="P81" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="23"/>
+      <c r="P81" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26"/>
       <c r="T81"/>
       <c r="U81"/>
       <c r="V81"/>
@@ -2815,41 +2825,41 @@
         <v>6</v>
       </c>
       <c r="G82" s="16">
-        <f>IF(J81="&gt;",H81,$L81+H106/H108*($M81-$L81)-POWER(-1,$H$4-$F82+1)/H108*$H$5)</f>
-        <v>3.3312460864120221</v>
-      </c>
-      <c r="H82" s="11">
-        <f>IF(F134="&lt;",G81,$L81+H107/H108*($M81-$L81)+POWER(-1,$H$4-$F82+1)/H108*$H$5)</f>
-        <v>3.5015654351909826</v>
+        <f t="shared" si="18"/>
+        <v>3.3327489041953666</v>
+      </c>
+      <c r="H82" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5004383218534749</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2215221166487407</v>
+        <f t="shared" si="19"/>
+        <v>-6.2220270709521497</v>
       </c>
       <c r="J82" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&gt;</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="21"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="L82" s="16">
-        <f t="shared" si="21"/>
-        <v>3.3312460864120221</v>
+        <f t="shared" si="22"/>
+        <v>3.3327489041953666</v>
       </c>
       <c r="M82" s="11">
-        <f t="shared" si="22"/>
-        <v>3.7770820288040072</v>
+        <f t="shared" si="23"/>
+        <v>3.7775829680651221</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
-      <c r="P82" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="23"/>
+      <c r="P82" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
       <c r="T82"/>
       <c r="U82"/>
       <c r="V82"/>
@@ -2861,41 +2871,41 @@
         <v>7</v>
       </c>
       <c r="G83" s="16">
-        <f>IF(J82="&gt;",H82,$L82+H105/H107*($M82-$L82)-POWER(-1,$H$4-$F83+1)/H107*$H$5)</f>
-        <v>3.5015654351909826</v>
-      </c>
-      <c r="H83" s="11">
-        <f>IF(F135="&lt;",G82,$L82+H106/H107*($M82-$L82)+POWER(-1,$H$4-$F83+1)/H107*$H$5)</f>
-        <v>3.6067626800250467</v>
+        <f t="shared" si="18"/>
+        <v>3.5004383218534749</v>
+      </c>
+      <c r="H83" s="18">
+        <f t="shared" si="24"/>
+        <v>3.6098935504070129</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="19"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="J83" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2386017301538708</v>
+        <f t="shared" si="21"/>
+        <v>-6.2379234075789416</v>
       </c>
       <c r="L83" s="16">
-        <f t="shared" si="21"/>
-        <v>3.3312460864120221</v>
+        <f t="shared" si="22"/>
+        <v>3.3327489041953666</v>
       </c>
       <c r="M83" s="11">
-        <f t="shared" si="22"/>
-        <v>3.6067626800250467</v>
+        <f t="shared" si="23"/>
+        <v>3.6098935504070129</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
-      <c r="P83" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="23"/>
-      <c r="S83" s="23"/>
+      <c r="P83" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
       <c r="T83"/>
       <c r="U83"/>
       <c r="V83"/>
@@ -2907,32 +2917,32 @@
         <v>8</v>
       </c>
       <c r="G84" s="16">
-        <f>IF(J83="&gt;",H83,$L83+H104/H106*($M83-$L83)-POWER(-1,$H$4-$F84+1)/H106*$H$5)</f>
-        <v>3.4364433312460863</v>
-      </c>
-      <c r="H84" s="11">
-        <f>IF(F136="&lt;",G83,$L83+H105/H106*($M83-$L83)+POWER(-1,$H$4-$F84+1)/H106*$H$5)</f>
-        <v>3.5015654351909826</v>
+        <f t="shared" si="18"/>
+        <v>3.4422041327489041</v>
+      </c>
+      <c r="H84" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5004383218534754</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2459605498569069</v>
+        <f t="shared" si="19"/>
+        <v>-6.2466596377286923</v>
       </c>
       <c r="J84" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&gt;</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="21"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="L84" s="16">
-        <f t="shared" si="21"/>
-        <v>3.4364433312460863</v>
+        <f t="shared" si="22"/>
+        <v>3.4422041327489041</v>
       </c>
       <c r="M84" s="11">
-        <f t="shared" si="22"/>
-        <v>3.6067626800250467</v>
+        <f t="shared" si="23"/>
+        <v>3.6098935504070129</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -2951,32 +2961,32 @@
         <v>9</v>
       </c>
       <c r="G85" s="16">
-        <f>IF(J84="&gt;",H84,$L84+H103/H105*($M84-$L84)-POWER(-1,$H$4-$F85+1)/H105*$H$5)</f>
-        <v>3.5015654351909826</v>
-      </c>
-      <c r="H85" s="11">
-        <f>IF(F137="&lt;",G84,$L84+H104/H105*($M84-$L84)+POWER(-1,$H$4-$F85+1)/H105*$H$5)</f>
-        <v>3.5416405760801499</v>
+        <f t="shared" si="18"/>
+        <v>3.5004383218534754</v>
+      </c>
+      <c r="H85" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5516593613024421</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="19"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="J85" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2482660624237152</v>
+        <f t="shared" si="21"/>
+        <v>-6.2473313103898249</v>
       </c>
       <c r="L85" s="16">
-        <f t="shared" si="21"/>
-        <v>3.4364433312460863</v>
+        <f t="shared" si="22"/>
+        <v>3.4422041327489041</v>
       </c>
       <c r="M85" s="11">
-        <f t="shared" si="22"/>
-        <v>3.5416405760801499</v>
+        <f t="shared" si="23"/>
+        <v>3.5516593613024421</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -2995,43 +3005,43 @@
         <v>10</v>
       </c>
       <c r="G86" s="16">
-        <f>IF(J85="&gt;",H85,$L85+H102/H104*($M85-$L85)-POWER(-1,$H$4-$F86+1)/H104*$H$5)</f>
-        <v>3.4765184721352536</v>
-      </c>
-      <c r="H86" s="11">
-        <f>IF(F138="&lt;",G85,$L85+H103/H104*($M85-$L85)+POWER(-1,$H$4-$F86+1)/H104*$H$5)</f>
-        <v>3.5015654351909826</v>
+        <f t="shared" si="18"/>
+        <v>3.4934251721978709</v>
+      </c>
+      <c r="H86" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5004383218534754</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2494486178491364</v>
+        <f t="shared" si="19"/>
+        <v>-6.249956771639372</v>
       </c>
       <c r="J86" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&gt;</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="21"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="L86" s="16">
-        <f t="shared" si="21"/>
-        <v>3.4765184721352536</v>
+        <f t="shared" si="22"/>
+        <v>3.4934251721978709</v>
       </c>
       <c r="M86" s="11">
-        <f t="shared" si="22"/>
-        <v>3.5416405760801499</v>
+        <f t="shared" si="23"/>
+        <v>3.5516593613024421</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
-      <c r="P86" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
+      <c r="P86" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
       <c r="V86"/>
       <c r="W86"/>
     </row>
@@ -3041,32 +3051,32 @@
         <v>11</v>
       </c>
       <c r="G87" s="16">
-        <f>IF(J86="&gt;",H86,$L86+H101/H103*($M86-$L86)-POWER(-1,$H$4-$F87+1)/H103*$H$5)</f>
-        <v>3.5015654351909826</v>
-      </c>
-      <c r="H87" s="11">
-        <f>IF(F139="&lt;",G86,$L86+H102/H103*($M86-$L86)+POWER(-1,$H$4-$F87+1)/H103*$H$5)</f>
-        <v>3.5165936130244204</v>
+        <f t="shared" si="18"/>
+        <v>3.5004383218534754</v>
+      </c>
+      <c r="H87" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5446462116468376</v>
       </c>
       <c r="I87" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="19"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="J87" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2497246520067975</v>
+        <f t="shared" si="21"/>
+        <v>-6.2480067157855839</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" si="21"/>
-        <v>3.4765184721352536</v>
+        <f t="shared" si="22"/>
+        <v>3.4934251721978709</v>
       </c>
       <c r="M87" s="11">
-        <f t="shared" si="22"/>
-        <v>3.5165936130244204</v>
+        <f t="shared" si="23"/>
+        <v>3.5446462116468376</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -3085,32 +3095,32 @@
         <v>12</v>
       </c>
       <c r="G88" s="16">
-        <f>IF(J87="&gt;",H87,$L87+H100/H102*($M87-$L87)-POWER(-1,$H$4-$F88+1)/H102*$H$5)</f>
-        <v>3.4915466499686909</v>
-      </c>
-      <c r="H88" s="11">
-        <f>IF(F140="&lt;",G87,$L87+H101/H102*($M87-$L87)+POWER(-1,$H$4-$F88+1)/H102*$H$5)</f>
-        <v>3.5015654351909831</v>
+        <f t="shared" si="18"/>
+        <v>3.5376330619912335</v>
+      </c>
+      <c r="H88" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5004383218534749</v>
       </c>
       <c r="I88" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.249928540873249</v>
+        <f t="shared" si="19"/>
+        <v>-6.248583752645164</v>
       </c>
       <c r="J88" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&gt;</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2499975494126634</v>
+        <f t="shared" si="21"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" si="21"/>
-        <v>3.4915466499686909</v>
+        <f t="shared" si="22"/>
+        <v>3.5376330619912335</v>
       </c>
       <c r="M88" s="11">
-        <f t="shared" si="22"/>
-        <v>3.5165936130244204</v>
+        <f t="shared" si="23"/>
+        <v>3.5446462116468376</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
@@ -3129,32 +3139,32 @@
         <v>13</v>
       </c>
       <c r="G89" s="16">
-        <f>IF(J88="&gt;",H88,$L88+H99/H101*($M88-$L88)-POWER(-1,$H$4-$F89+1)/H101*$H$5)</f>
-        <v>3.5015654351909831</v>
-      </c>
-      <c r="H89" s="11">
-        <f>IF(F141="&lt;",G88,$L88+H100/H101*($M88-$L88)+POWER(-1,$H$4-$F89+1)/H101*$H$5)</f>
-        <v>3.5065748278021287</v>
+        <f t="shared" si="18"/>
+        <v>3.5004383218534749</v>
+      </c>
+      <c r="H89" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5818409517845962</v>
       </c>
       <c r="I89" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2499975494126634</v>
+        <f t="shared" si="19"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="J89" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.249956771639372</v>
+        <f t="shared" si="21"/>
+        <v>-6.2433020586109915</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" si="21"/>
-        <v>3.4915466499686909</v>
+        <f t="shared" si="22"/>
+        <v>3.5376330619912335</v>
       </c>
       <c r="M89" s="11">
-        <f t="shared" si="22"/>
-        <v>3.5065748278021287</v>
+        <f t="shared" si="23"/>
+        <v>3.5818409517845962</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -3172,33 +3182,33 @@
       <c r="F90" s="11">
         <v>14</v>
       </c>
-      <c r="G90" s="12">
-        <f>IF(J89="&gt;",H89,$L89+H98/H100*($M89-$L89)-POWER(-1,$H$4-$F90+1)/H100*$H$5)</f>
-        <v>3.496556042579837</v>
-      </c>
-      <c r="H90" s="11">
-        <f>IF(F142="&lt;",G89,$L89+H99/H100*($M89-$L89)+POWER(-1,$H$4-$F90+1)/H100*$H$5)</f>
-        <v>3.5015654351909826</v>
+      <c r="G90" s="30">
+        <f t="shared" si="18"/>
+        <v>3.6190356919223547</v>
+      </c>
+      <c r="H90" s="18">
+        <f t="shared" si="24"/>
+        <v>3.5004383218534749</v>
       </c>
       <c r="I90" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2499881391572885</v>
+        <f t="shared" si="19"/>
+        <v>-6.2358305040485646</v>
       </c>
       <c r="J90" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&gt;</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2499975494126616</v>
+        <f t="shared" si="21"/>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="L90" s="11">
-        <f t="shared" si="21"/>
-        <v>3.496556042579837</v>
+        <f t="shared" si="22"/>
+        <v>3.6190356919223547</v>
       </c>
       <c r="M90" s="11">
-        <f t="shared" si="22"/>
-        <v>3.5065748278021287</v>
+        <f t="shared" si="23"/>
+        <v>3.5818409517845962</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -3216,33 +3226,33 @@
       <c r="F91" s="11">
         <v>15</v>
       </c>
-      <c r="G91" s="17">
-        <f>IF(J90="&gt;",H90,$L90+H97/H99*($M90-$L90)-POWER(-1,$H$4-$F91+1)/H99*$H$5)</f>
-        <v>3.5015654351909826</v>
-      </c>
-      <c r="H91" s="12">
-        <f>IF(F143="&lt;",G90,$L90+H98/H99*($M90-$L90)+POWER(-1,$H$4-$F91+1)/H99*$H$5)</f>
-        <v>3.5015654351909831</v>
+      <c r="G91" s="16">
+        <f t="shared" si="18"/>
+        <v>3.5004383218534749</v>
+      </c>
+      <c r="H91" s="19">
+        <f t="shared" si="24"/>
+        <v>3.7004383218534755</v>
       </c>
       <c r="I91" s="11">
-        <f t="shared" si="18"/>
-        <v>-6.2499975494126616</v>
+        <f>G91*G91 - 7*G91 + 6</f>
+        <v>-6.2499998078739516</v>
       </c>
       <c r="J91" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" si="20"/>
-        <v>-6.2499975494126634</v>
+        <f t="shared" si="21"/>
+        <v>-6.2098244791325623</v>
       </c>
       <c r="L91" s="11">
-        <f t="shared" si="21"/>
-        <v>3.496556042579837</v>
+        <f t="shared" si="22"/>
+        <v>3.6190356919223547</v>
       </c>
       <c r="M91" s="11">
-        <f t="shared" si="22"/>
-        <v>3.5015654351909831</v>
+        <f t="shared" si="23"/>
+        <v>3.7004383218534755</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -3321,10 +3331,10 @@
     <row r="95" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H95" s="22"/>
+      <c r="H95" s="25"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -3344,13 +3354,14 @@
     <row r="96" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11">
-        <v>0</v>
+      <c r="G96" s="21">
+        <v>17</v>
+      </c>
+      <c r="H96" s="21">
+        <f t="shared" ref="H96:H110" si="25">H97+H98</f>
+        <v>2584</v>
       </c>
       <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
@@ -3367,15 +3378,14 @@
     <row r="97" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E97"/>
       <c r="F97"/>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11">
-        <v>1</v>
+      <c r="G97" s="21">
+        <v>16</v>
+      </c>
+      <c r="H97" s="21">
+        <f t="shared" si="25"/>
+        <v>1597</v>
       </c>
       <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
@@ -3392,16 +3402,14 @@
     <row r="98" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98" s="11">
-        <v>1</v>
-      </c>
-      <c r="H98" s="11">
-        <f>H96+H97</f>
-        <v>1</v>
+      <c r="G98" s="21">
+        <v>15</v>
+      </c>
+      <c r="H98" s="21">
+        <f t="shared" si="25"/>
+        <v>987</v>
       </c>
       <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
@@ -3418,16 +3426,14 @@
     <row r="99" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E99"/>
       <c r="F99"/>
-      <c r="G99" s="11">
-        <v>2</v>
-      </c>
-      <c r="H99" s="11">
-        <f>H97+H98</f>
-        <v>2</v>
+      <c r="G99" s="21">
+        <v>14</v>
+      </c>
+      <c r="H99" s="21">
+        <f t="shared" si="25"/>
+        <v>610</v>
       </c>
       <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
@@ -3444,16 +3450,14 @@
     <row r="100" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E100"/>
       <c r="F100"/>
-      <c r="G100" s="11">
-        <v>3</v>
-      </c>
-      <c r="H100" s="11">
-        <f t="shared" ref="H100:H114" si="23">H98+H99</f>
-        <v>3</v>
+      <c r="G100" s="21">
+        <v>13</v>
+      </c>
+      <c r="H100" s="21">
+        <f t="shared" si="25"/>
+        <v>377</v>
       </c>
       <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
@@ -3470,16 +3474,14 @@
     <row r="101" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E101"/>
       <c r="F101"/>
-      <c r="G101" s="11">
-        <v>4</v>
-      </c>
-      <c r="H101" s="11">
-        <f t="shared" si="23"/>
-        <v>5</v>
+      <c r="G101" s="21">
+        <v>12</v>
+      </c>
+      <c r="H101" s="21">
+        <f t="shared" si="25"/>
+        <v>233</v>
       </c>
       <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
@@ -3496,16 +3498,14 @@
     <row r="102" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E102"/>
       <c r="F102"/>
-      <c r="G102" s="11">
-        <v>5</v>
-      </c>
-      <c r="H102" s="11">
-        <f t="shared" si="23"/>
-        <v>8</v>
+      <c r="G102" s="21">
+        <v>11</v>
+      </c>
+      <c r="H102" s="21">
+        <f t="shared" si="25"/>
+        <v>144</v>
       </c>
       <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
@@ -3522,16 +3522,14 @@
     <row r="103" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E103"/>
       <c r="F103"/>
-      <c r="G103" s="11">
-        <v>6</v>
-      </c>
-      <c r="H103" s="11">
-        <f t="shared" si="23"/>
-        <v>13</v>
+      <c r="G103" s="21">
+        <v>10</v>
+      </c>
+      <c r="H103" s="21">
+        <f t="shared" si="25"/>
+        <v>89</v>
       </c>
       <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
@@ -3548,16 +3546,14 @@
     <row r="104" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104" s="11">
-        <v>7</v>
-      </c>
-      <c r="H104" s="11">
-        <f t="shared" si="23"/>
-        <v>21</v>
+      <c r="G104" s="21">
+        <v>9</v>
+      </c>
+      <c r="H104" s="21">
+        <f t="shared" si="25"/>
+        <v>55</v>
       </c>
       <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
@@ -3574,16 +3570,14 @@
     <row r="105" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E105"/>
       <c r="F105"/>
-      <c r="G105" s="11">
+      <c r="G105" s="21">
         <v>8</v>
       </c>
-      <c r="H105" s="11">
-        <f t="shared" si="23"/>
+      <c r="H105" s="21">
+        <f t="shared" si="25"/>
         <v>34</v>
       </c>
       <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
@@ -3600,16 +3594,14 @@
     <row r="106" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106" s="11">
-        <v>9</v>
-      </c>
-      <c r="H106" s="11">
-        <f t="shared" si="23"/>
-        <v>55</v>
+      <c r="G106" s="21">
+        <v>7</v>
+      </c>
+      <c r="H106" s="21">
+        <f t="shared" si="25"/>
+        <v>21</v>
       </c>
       <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
@@ -3626,16 +3618,14 @@
     <row r="107" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E107"/>
       <c r="F107"/>
-      <c r="G107" s="11">
-        <v>10</v>
-      </c>
-      <c r="H107" s="11">
-        <f t="shared" si="23"/>
-        <v>89</v>
+      <c r="G107" s="21">
+        <v>6</v>
+      </c>
+      <c r="H107" s="21">
+        <f t="shared" si="25"/>
+        <v>13</v>
       </c>
       <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
@@ -3652,16 +3642,14 @@
     <row r="108" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E108"/>
       <c r="F108"/>
-      <c r="G108" s="11">
-        <v>11</v>
-      </c>
-      <c r="H108" s="11">
-        <f t="shared" si="23"/>
-        <v>144</v>
+      <c r="G108" s="21">
+        <v>5</v>
+      </c>
+      <c r="H108" s="21">
+        <f t="shared" si="25"/>
+        <v>8</v>
       </c>
       <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
@@ -3678,16 +3666,14 @@
     <row r="109" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E109"/>
       <c r="F109"/>
-      <c r="G109" s="11">
-        <v>12</v>
-      </c>
-      <c r="H109" s="11">
-        <f t="shared" si="23"/>
-        <v>233</v>
+      <c r="G109" s="21">
+        <v>4</v>
+      </c>
+      <c r="H109" s="21">
+        <f t="shared" si="25"/>
+        <v>5</v>
       </c>
       <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
@@ -3704,16 +3690,14 @@
     <row r="110" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E110"/>
       <c r="F110"/>
-      <c r="G110" s="11">
-        <v>13</v>
-      </c>
-      <c r="H110" s="11">
-        <f t="shared" si="23"/>
-        <v>377</v>
+      <c r="G110" s="21">
+        <v>3</v>
+      </c>
+      <c r="H110" s="21">
+        <f t="shared" si="25"/>
+        <v>3</v>
       </c>
       <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
@@ -3730,16 +3714,14 @@
     <row r="111" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E111"/>
       <c r="F111"/>
-      <c r="G111" s="11">
-        <v>14</v>
-      </c>
-      <c r="H111" s="11">
-        <f t="shared" si="23"/>
-        <v>610</v>
+      <c r="G111" s="21">
+        <v>2</v>
+      </c>
+      <c r="H111" s="21">
+        <f>H112+H113</f>
+        <v>2</v>
       </c>
       <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
@@ -3756,16 +3738,13 @@
     <row r="112" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E112"/>
       <c r="F112"/>
-      <c r="G112" s="11">
-        <v>15</v>
-      </c>
-      <c r="H112" s="11">
-        <f t="shared" si="23"/>
-        <v>987</v>
+      <c r="G112" s="21">
+        <v>1</v>
+      </c>
+      <c r="H112" s="21">
+        <v>1</v>
       </c>
       <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
@@ -3782,16 +3761,13 @@
     <row r="113" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E113"/>
       <c r="F113"/>
-      <c r="G113" s="11">
-        <v>16</v>
-      </c>
-      <c r="H113" s="11">
-        <f t="shared" si="23"/>
-        <v>1597</v>
+      <c r="G113" s="21">
+        <v>0</v>
+      </c>
+      <c r="H113" s="21">
+        <v>1</v>
       </c>
       <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
@@ -3808,13 +3784,8 @@
     <row r="114" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E114"/>
       <c r="F114"/>
-      <c r="G114" s="11">
-        <v>17</v>
-      </c>
-      <c r="H114" s="11">
-        <f t="shared" si="23"/>
-        <v>2584</v>
-      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
@@ -3890,7 +3861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1536E-A1D0-4E8B-BC2C-1B32967FE079}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>

--- a/LR4/LR4.xlsx
+++ b/LR4/LR4.xlsx
@@ -8,14 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Уник\МОптим\LR4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B3D99-9F09-4A99-81A0-FA9C5ADE6B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23FE51-8EBB-44DA-8B29-9E502EC93EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Отчет о результатах №2" sheetId="6" r:id="rId3"/>
+    <sheet name="Отчет об устойчивости №2" sheetId="7" r:id="rId4"/>
+    <sheet name="Отчет о пределах №2" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Задание 2'!$G$24:$G$28</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Задание 2'!$J$29</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Задание 2'!$C$31</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Задание 2'!$C$30</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Метод золотого сечения</t>
   </si>
@@ -118,9 +154,6 @@
     <t xml:space="preserve">x2(8) = 3,525391 -&gt; f(x2(8)) =-6,24936 </t>
   </si>
   <si>
-    <t>Ответ: Δ = [3,49793 ; 3,503793],  X = 3,503793, f(X) = -6,24999</t>
-  </si>
-  <si>
     <t>Ответ: Δ = [3,42539 ; 3,55625],  x2(7) = 3,494531, f(x2(7)) = -6,24997</t>
   </si>
   <si>
@@ -175,16 +208,232 @@
     <t>Точка минимума локализирована на отрезке [3,496556; 3,5015654]</t>
   </si>
   <si>
-    <t>a(15) = 3,619036 -&gt; f(a(15)) = -6,25</t>
-  </si>
-  <si>
-    <t>b(15) = 3,7004383 -&gt; f(b(15)) = -6,20982</t>
-  </si>
-  <si>
-    <t>x2(15) = 3,7004383 -&gt; f(x2(15)) = -6,20982</t>
-  </si>
-  <si>
-    <t>Ответ: Δ = [3,619036 ; 3,70044383], X = 3,70044383, f = -6,20982</t>
+    <t>x1(15) = 3,5016 -&gt; f(x1(15)) = -6,25</t>
+  </si>
+  <si>
+    <t>b(15) = 3,5035542 -&gt; f(b(15)) = -6,24999</t>
+  </si>
+  <si>
+    <t>a(15) = 3,497781 -&gt; f(a(15)) = -6,25</t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [3,497781 ; 3,5035542], X = 3,5016, f = -6,25</t>
+  </si>
+  <si>
+    <t>Ответ: Δ = [3,49793 ; 3,503793],  X = 3,503793, f(X) = -6,25</t>
+  </si>
+  <si>
+    <t>Оптимизация без ограничений</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>qi0</t>
+  </si>
+  <si>
+    <t>Ki*Vi/qi0</t>
+  </si>
+  <si>
+    <t>Si*qi</t>
+  </si>
+  <si>
+    <t>fi*qi</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Оптимизация с ограничениями</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о результатах</t>
+  </si>
+  <si>
+    <t>Лист: [LR4.xlsx]Задание 2</t>
+  </si>
+  <si>
+    <t>Модуль поиска решения</t>
+  </si>
+  <si>
+    <t>Модуль: Поиск решения нелинейных задач методом ОПГ</t>
+  </si>
+  <si>
+    <t>Параметры поиска решения</t>
+  </si>
+  <si>
+    <t>Максимальное время Без пределов,  Число итераций Без пределов, Precision 0,000001, Использовать автоматическое масштабирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сходимость 0,0001, Размер совокупности 100, Случайное начальное значение 0, Правые производные, Обязательные границы</t>
+  </si>
+  <si>
+    <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 1%, Считать неотрицательными</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Минимум)</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Исходное значение</t>
+  </si>
+  <si>
+    <t>Окончательное значение</t>
+  </si>
+  <si>
+    <t>Ячейки переменных</t>
+  </si>
+  <si>
+    <t>Целочисленное</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Значение ячейки</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>$C$31</t>
+  </si>
+  <si>
+    <t>L Vi</t>
+  </si>
+  <si>
+    <t>$G$24</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>$G$25</t>
+  </si>
+  <si>
+    <t>$G$26</t>
+  </si>
+  <si>
+    <t>$G$27</t>
+  </si>
+  <si>
+    <t>$G$28</t>
+  </si>
+  <si>
+    <t>$J$29</t>
+  </si>
+  <si>
+    <t>Сумма fi*qi</t>
+  </si>
+  <si>
+    <t>$J$29&lt;=$C$30</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет об устойчивости</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Градиент</t>
+  </si>
+  <si>
+    <t>Лагранжа</t>
+  </si>
+  <si>
+    <t>Множитель</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о пределах</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Нижний</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Верхний</t>
+  </si>
+  <si>
+    <t>Отчет создан: 12.12.2022 11:13:44</t>
+  </si>
+  <si>
+    <t>Результат: Решение найдено. Все ограничения и условия оптимальности выполнены.</t>
+  </si>
+  <si>
+    <t>Время решения: 0,188 секунд.</t>
+  </si>
+  <si>
+    <t>Число итераций: 6 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>Результат системы</t>
+  </si>
+  <si>
+    <t>Управление поставками без ограничений</t>
+  </si>
+  <si>
+    <t>Управление поставками с ограничениями на складские площади</t>
+  </si>
+  <si>
+    <t>Необходимые складские площади</t>
+  </si>
+  <si>
+    <t>Издержки работы в д.е./год</t>
+  </si>
+  <si>
+    <t>Анализ полученных результатов:</t>
+  </si>
+  <si>
+    <t>Вид товара</t>
+  </si>
+  <si>
+    <t>Объем поставок</t>
   </si>
 </sst>
 </file>
@@ -195,7 +444,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +457,24 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -234,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -294,11 +561,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,16 +696,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,8 +745,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DCCB0-9C58-468D-AED0-D45510B4B5C4}">
   <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q99" sqref="Q99"/>
+    <sheetView zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,8 +1301,8 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
@@ -906,10 +1312,10 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -954,16 +1360,16 @@
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -1023,16 +1429,16 @@
         <f>IF(E9="&lt;",C9,H8)</f>
         <v>4.9442719099991592</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="L9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1274,7 +1680,7 @@
         <v>3.5015528100075706</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(E16="&lt;",B16,G16+$B$5*(H16-G16))</f>
         <v>3.541752799932703</v>
       </c>
       <c r="D17" s="9">
@@ -1336,11 +1742,11 @@
         <v>11</v>
       </c>
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
+        <f>IF(E18="&gt;",C18,G18+$B$4*(H18-G18))</f>
         <v>3.5015528100075706</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(E18="&lt;",B18,G18+$B$5*(H18-G18))</f>
         <v>3.5169078398115681</v>
       </c>
       <c r="D19" s="9">
@@ -1369,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="10">
-        <f t="shared" si="0"/>
+        <f>IF(E19="&gt;",C19,G19+$B$4*(H19-G19))</f>
         <v>3.4920628796904332</v>
       </c>
       <c r="C20" s="9">
@@ -1402,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="10">
-        <f t="shared" si="0"/>
+        <f>IF(E20="&gt;",C20,G20+$B$4*(H20-G20))</f>
         <v>3.5015528100075706</v>
       </c>
       <c r="C21" s="9">
@@ -1496,8 +1902,8 @@
         <v>3.5037930786641516</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1526,15 +1932,15 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -1588,12 +1994,12 @@
       <c r="H33" s="9">
         <v>8</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
       <c r="Y33"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -1628,12 +2034,12 @@
         <f>IF(E34="&gt;", H33, C34)</f>
         <v>4.05</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
       <c r="Y34"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -1671,12 +2077,12 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
       <c r="Y35"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -1711,12 +2117,12 @@
         <f t="shared" si="11"/>
         <v>4.05</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
       <c r="Y36"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -1751,12 +2157,12 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="J37" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
       <c r="Y37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -1791,12 +2197,12 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
       <c r="Y38"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -1865,15 +2271,15 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J40" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
+      <c r="J40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
       <c r="Y40"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -1916,9 +2322,9 @@
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y43"/>
     </row>
-    <row r="44" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>29</v>
+    <row r="44" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -1926,10 +2332,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C46" s="7">
         <v>16</v>
@@ -1938,7 +2344,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="7">
         <v>0.1</v>
@@ -1950,7 +2356,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="9">
         <v>1</v>
@@ -2004,7 +2410,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="9">
         <f>8/9*C51 - $C$47/2</f>
@@ -2074,7 +2480,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="9">
         <v>1</v>
@@ -2128,7 +2534,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="9">
         <f>C50*C50 - 7*C50 + 6</f>
@@ -2196,32 +2602,32 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="B54" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
+      <c r="B56" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="7">
         <v>17</v>
@@ -2229,7 +2635,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
@@ -2282,7 +2688,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="15">
         <f>4/9 * C63</f>
@@ -2351,7 +2757,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="9">
         <v>1</v>
@@ -2404,7 +2810,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="15">
         <f>C62*C62 - 7*C62 + 6</f>
@@ -2472,34 +2878,34 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B69" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+    </row>
+    <row r="72" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="72" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="7">
         <v>16</v>
@@ -2526,14 +2932,14 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="7">
-        <v>0.2</v>
+        <v>2E-3</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>4</v>
@@ -2607,15 +3013,15 @@
       </c>
       <c r="G77" s="16">
         <f>$L76+H99/H97*($M76-$L76)-POWER(-1,$C$74-$F77+1)/H97*$C$75</f>
-        <v>3.0556042579837195</v>
+        <v>3.0557282404508452</v>
       </c>
       <c r="H77" s="11">
         <f>$L76+H98/H97*($M76-$L76)+POWER(-1,$C$74-$F77+1)/H97*$C$75</f>
-        <v>4.9443957420162805</v>
+        <v>4.9442717595491548</v>
       </c>
       <c r="I77" s="11">
         <f>G77*G77 - 7*G77 + 6</f>
-        <v>-6.0525124244777988</v>
+        <v>-6.0526226036670963</v>
       </c>
       <c r="J77" s="11" t="str">
         <f>IF(I77&gt;K77, "&gt;", "&lt;")</f>
@@ -2623,7 +3029,7 @@
       </c>
       <c r="K77" s="11">
         <f>H77*H77 - 7*H77 + 6</f>
-        <v>-4.1637209404452342</v>
+        <v>-4.1640790845687903</v>
       </c>
       <c r="L77" s="16">
         <f>IF(J77="&gt;",G77,L76)</f>
@@ -2631,7 +3037,7 @@
       </c>
       <c r="M77" s="11">
         <f>IF(J77="&lt;",H77,M76)</f>
-        <v>4.9443957420162805</v>
+        <v>4.9442717595491548</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -2646,16 +3052,16 @@
         <v>2</v>
       </c>
       <c r="G78" s="16">
-        <f t="shared" ref="G78:G91" si="18">IF(J77="&gt;",H77,$L77+H100/H98*($M77-$L77)-POWER(-1,$C$74-$F78+1)/H98*$C$75)</f>
-        <v>1.888791484032561</v>
+        <f t="shared" ref="G78" si="18">IF(J77="&gt;",H77,$L77+H100/H98*($M77-$L77)-POWER(-1,$C$74-$F78+1)/H98*$C$75)</f>
+        <v>1.8885435190983093</v>
       </c>
       <c r="H78" s="11">
-        <f>IF(J93="&lt;",G77,$L77+H99/H98*($M77-$L77)+POWER(-1,$C$74-$F78+1)/H98*$C$75)</f>
-        <v>3.0556042579837195</v>
+        <f>IF(J77="&lt;",G77,$L77+H99/H98*($M77-$L77)+POWER(-1,$C$74-$F78+1)/H98*$C$75)</f>
+        <v>3.0557282404508452</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" ref="I78:I91" si="19">G78*G78 - 7*G78 + 6</f>
-        <v>-3.6540071180740021</v>
+        <f t="shared" ref="I78:I90" si="19">G78*G78 - 7*G78 + 6</f>
+        <v>-3.6532080101599398</v>
       </c>
       <c r="J78" s="11" t="str">
         <f t="shared" ref="J78:J91" si="20">IF(I78&gt;K78, "&gt;", "&lt;")</f>
@@ -2663,27 +3069,27 @@
       </c>
       <c r="K78" s="11">
         <f t="shared" ref="K78:K91" si="21">H78*H78 - 7*H78 + 6</f>
-        <v>-6.0525124244777988</v>
+        <v>-6.0526226036670963</v>
       </c>
       <c r="L78" s="16">
         <f t="shared" ref="L78:L91" si="22">IF(J78="&gt;",G78,L77)</f>
-        <v>1.888791484032561</v>
+        <v>1.8885435190983093</v>
       </c>
       <c r="M78" s="11">
         <f t="shared" ref="M78:M91" si="23">IF(J78="&lt;",H78,M77)</f>
-        <v>4.9443957420162805</v>
+        <v>4.9442717595491548</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="P78" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
+      <c r="P78" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="28"/>
       <c r="W78"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -2692,16 +3098,16 @@
         <v>3</v>
       </c>
       <c r="G79" s="16">
-        <f t="shared" si="18"/>
-        <v>3.0556042579837195</v>
-      </c>
-      <c r="H79" s="18">
-        <f t="shared" ref="H79:H91" si="24">IF(J94="&lt;",G78,$L78+H100/H99*($M78-$L78)+POWER(-1,$C$74-$F79+1)/H99*$C$75)</f>
-        <v>3.7775829680651221</v>
+        <f t="shared" ref="G79:G88" si="24">IF(J78="&gt;",H78,$L78+H101/H99*($M78-$L78)-POWER(-1,$C$74-$F79+1)/H99*$C$75)</f>
+        <v>3.0557282404508452</v>
+      </c>
+      <c r="H79" s="21">
+        <f t="shared" ref="H79:H84" si="25">IF(J78="&lt;",G78,$L78+H100/H99*($M78-$L78)+POWER(-1,$C$74-$F79+1)/H99*$C$75)</f>
+        <v>3.7770870381966186</v>
       </c>
       <c r="I79" s="11">
         <f t="shared" si="19"/>
-        <v>-6.0525124244777988</v>
+        <v>-6.0526226036670963</v>
       </c>
       <c r="J79" s="11" t="str">
         <f t="shared" si="20"/>
@@ -2709,15 +3115,15 @@
       </c>
       <c r="K79" s="11">
         <f t="shared" si="21"/>
-        <v>-6.1729476958401577</v>
+        <v>-6.1732227732634257</v>
       </c>
       <c r="L79" s="16">
         <f t="shared" si="22"/>
-        <v>3.0556042579837195</v>
+        <v>3.0557282404508452</v>
       </c>
       <c r="M79" s="11">
         <f t="shared" si="23"/>
-        <v>4.9443957420162805</v>
+        <v>4.9442717595491548</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
@@ -2736,16 +3142,16 @@
         <v>4</v>
       </c>
       <c r="G80" s="16">
-        <f t="shared" si="18"/>
-        <v>3.7775829680651221</v>
-      </c>
-      <c r="H80" s="18">
         <f t="shared" si="24"/>
-        <v>4.2224170319348779</v>
+        <v>3.7770870381966186</v>
+      </c>
+      <c r="H80" s="21">
+        <f t="shared" si="25"/>
+        <v>4.2229129618033809</v>
       </c>
       <c r="I80" s="11">
         <f t="shared" si="19"/>
-        <v>-6.1729476958401577</v>
+        <v>-6.1732227732634257</v>
       </c>
       <c r="J80" s="11" t="str">
         <f t="shared" si="20"/>
@@ -2753,15 +3159,15 @@
       </c>
       <c r="K80" s="11">
         <f t="shared" si="21"/>
-        <v>-5.7281136319704018</v>
+        <v>-5.7273968496566638</v>
       </c>
       <c r="L80" s="16">
         <f t="shared" si="22"/>
-        <v>3.0556042579837195</v>
+        <v>3.0557282404508452</v>
       </c>
       <c r="M80" s="11">
         <f t="shared" si="23"/>
-        <v>4.2224170319348779</v>
+        <v>4.2229129618033809</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -2779,16 +3185,16 @@
         <v>5</v>
       </c>
       <c r="G81" s="16">
-        <f t="shared" si="18"/>
-        <v>3.5004383218534754</v>
-      </c>
-      <c r="H81" s="18">
         <f t="shared" si="24"/>
-        <v>3.7775829680651221</v>
+        <v>3.5015541640576076</v>
+      </c>
+      <c r="H81" s="21">
+        <f t="shared" si="25"/>
+        <v>3.7770870381966186</v>
       </c>
       <c r="I81" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="J81" s="11" t="str">
         <f t="shared" si="20"/>
@@ -2796,24 +3202,24 @@
       </c>
       <c r="K81" s="11">
         <f t="shared" si="21"/>
-        <v>-6.1729476958401577</v>
+        <v>-6.1732227732634257</v>
       </c>
       <c r="L81" s="16">
         <f t="shared" si="22"/>
-        <v>3.0556042579837195</v>
+        <v>3.0557282404508452</v>
       </c>
       <c r="M81" s="11">
         <f t="shared" si="23"/>
-        <v>3.7775829680651221</v>
+        <v>3.7770870381966186</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
-      <c r="P81" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="26"/>
+      <c r="P81" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
       <c r="T81"/>
       <c r="U81"/>
       <c r="V81"/>
@@ -2825,16 +3231,16 @@
         <v>6</v>
       </c>
       <c r="G82" s="16">
-        <f t="shared" si="18"/>
-        <v>3.3327489041953666</v>
-      </c>
-      <c r="H82" s="18">
         <f t="shared" si="24"/>
-        <v>3.5004383218534749</v>
+        <v>3.3312611145898559</v>
+      </c>
+      <c r="H82" s="21">
+        <f t="shared" si="25"/>
+        <v>3.5015541640576076</v>
       </c>
       <c r="I82" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2220270709521497</v>
+        <v>-6.2215271885505405</v>
       </c>
       <c r="J82" s="11" t="str">
         <f t="shared" si="20"/>
@@ -2842,24 +3248,24 @@
       </c>
       <c r="K82" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="L82" s="16">
         <f t="shared" si="22"/>
-        <v>3.3327489041953666</v>
+        <v>3.3312611145898559</v>
       </c>
       <c r="M82" s="11">
         <f t="shared" si="23"/>
-        <v>3.7775829680651221</v>
+        <v>3.7770870381966186</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
-      <c r="P82" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26"/>
+      <c r="P82" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
       <c r="T82"/>
       <c r="U82"/>
       <c r="V82"/>
@@ -2871,16 +3277,16 @@
         <v>7</v>
       </c>
       <c r="G83" s="16">
-        <f t="shared" si="18"/>
-        <v>3.5004383218534749</v>
-      </c>
-      <c r="H83" s="18">
         <f t="shared" si="24"/>
-        <v>3.6098935504070129</v>
+        <v>3.5015541640576076</v>
+      </c>
+      <c r="H83" s="21">
+        <f t="shared" si="25"/>
+        <v>3.6067939887288665</v>
       </c>
       <c r="I83" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="J83" s="11" t="str">
         <f t="shared" si="20"/>
@@ -2888,24 +3294,24 @@
       </c>
       <c r="K83" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2379234075789416</v>
+        <v>-6.2385950439713778</v>
       </c>
       <c r="L83" s="16">
         <f t="shared" si="22"/>
-        <v>3.3327489041953666</v>
+        <v>3.3312611145898559</v>
       </c>
       <c r="M83" s="11">
         <f t="shared" si="23"/>
-        <v>3.6098935504070129</v>
+        <v>3.6067939887288665</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
-      <c r="P83" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
+      <c r="P83" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
       <c r="T83"/>
       <c r="U83"/>
       <c r="V83"/>
@@ -2917,16 +3323,16 @@
         <v>8</v>
       </c>
       <c r="G84" s="16">
-        <f t="shared" si="18"/>
-        <v>3.4422041327489041</v>
-      </c>
-      <c r="H84" s="18">
         <f t="shared" si="24"/>
-        <v>3.5004383218534754</v>
+        <v>3.4365009392611148</v>
+      </c>
+      <c r="H84" s="21">
+        <f t="shared" si="25"/>
+        <v>3.5015541640576076</v>
       </c>
       <c r="I84" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2466596377286923</v>
+        <v>-6.2459678692852787</v>
       </c>
       <c r="J84" s="11" t="str">
         <f t="shared" si="20"/>
@@ -2934,15 +3340,15 @@
       </c>
       <c r="K84" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="L84" s="16">
-        <f t="shared" si="22"/>
-        <v>3.4422041327489041</v>
+        <f>IF(J84="&gt;",G84,L83)</f>
+        <v>3.4365009392611148</v>
       </c>
       <c r="M84" s="11">
         <f t="shared" si="23"/>
-        <v>3.6098935504070129</v>
+        <v>3.6067939887288665</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -2961,16 +3367,16 @@
         <v>9</v>
       </c>
       <c r="G85" s="16">
-        <f t="shared" si="18"/>
-        <v>3.5004383218534754</v>
-      </c>
-      <c r="H85" s="18">
         <f t="shared" si="24"/>
-        <v>3.5516593613024421</v>
+        <v>3.5015541640576076</v>
+      </c>
+      <c r="H85" s="21">
+        <f t="shared" ref="H85:H91" si="26">IF(J84="&lt;",G84,$L84+H106/H105*($M84-$L84)+POWER(-1,$C$74-$F85+1)/H105*$C$75)</f>
+        <v>3.5417407639323732</v>
       </c>
       <c r="I85" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="J85" s="11" t="str">
         <f t="shared" si="20"/>
@@ -2978,15 +3384,15 @@
       </c>
       <c r="K85" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2473313103898249</v>
+        <v>-6.2482577086263404</v>
       </c>
       <c r="L85" s="16">
         <f t="shared" si="22"/>
-        <v>3.4422041327489041</v>
+        <v>3.4365009392611148</v>
       </c>
       <c r="M85" s="11">
         <f t="shared" si="23"/>
-        <v>3.5516593613024421</v>
+        <v>3.5417407639323732</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -3005,16 +3411,16 @@
         <v>10</v>
       </c>
       <c r="G86" s="16">
-        <f t="shared" si="18"/>
-        <v>3.4934251721978709</v>
-      </c>
-      <c r="H86" s="18">
         <f t="shared" si="24"/>
-        <v>3.5004383218534754</v>
+        <v>3.47668753913588</v>
+      </c>
+      <c r="H86" s="21">
+        <f t="shared" si="26"/>
+        <v>3.5015541640576076</v>
       </c>
       <c r="I86" s="11">
         <f t="shared" si="19"/>
-        <v>-6.249956771639372</v>
+        <v>-6.2494565291684587</v>
       </c>
       <c r="J86" s="11" t="str">
         <f t="shared" si="20"/>
@@ -3022,26 +3428,26 @@
       </c>
       <c r="K86" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="L86" s="16">
         <f t="shared" si="22"/>
-        <v>3.4934251721978709</v>
+        <v>3.47668753913588</v>
       </c>
       <c r="M86" s="11">
         <f t="shared" si="23"/>
-        <v>3.5516593613024421</v>
+        <v>3.5417407639323732</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
-      <c r="P86" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="23"/>
-      <c r="S86" s="23"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="23"/>
+      <c r="P86" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
       <c r="V86"/>
       <c r="W86"/>
     </row>
@@ -3051,16 +3457,16 @@
         <v>11</v>
       </c>
       <c r="G87" s="16">
-        <f t="shared" si="18"/>
-        <v>3.5004383218534754</v>
-      </c>
-      <c r="H87" s="18">
         <f t="shared" si="24"/>
-        <v>3.5446462116468376</v>
+        <v>3.5015541640576076</v>
+      </c>
+      <c r="H87" s="21">
+        <f t="shared" si="26"/>
+        <v>3.5168741390106453</v>
       </c>
       <c r="I87" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="J87" s="11" t="str">
         <f t="shared" si="20"/>
@@ -3068,15 +3474,15 @@
       </c>
       <c r="K87" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2480067157855839</v>
+        <v>-6.2497152634326483</v>
       </c>
       <c r="L87" s="11">
         <f t="shared" si="22"/>
-        <v>3.4934251721978709</v>
+        <v>3.47668753913588</v>
       </c>
       <c r="M87" s="11">
         <f t="shared" si="23"/>
-        <v>3.5446462116468376</v>
+        <v>3.5168741390106453</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -3095,16 +3501,16 @@
         <v>12</v>
       </c>
       <c r="G88" s="16">
-        <f t="shared" si="18"/>
-        <v>3.5376330619912335</v>
-      </c>
-      <c r="H88" s="18">
         <f t="shared" si="24"/>
-        <v>3.5004383218534749</v>
+        <v>3.4920075140889169</v>
+      </c>
+      <c r="H88" s="21">
+        <f t="shared" si="26"/>
+        <v>3.5015541640576076</v>
       </c>
       <c r="I88" s="11">
         <f t="shared" si="19"/>
-        <v>-6.248583752645164</v>
+        <v>-6.2499361201689592</v>
       </c>
       <c r="J88" s="11" t="str">
         <f t="shared" si="20"/>
@@ -3112,15 +3518,15 @@
       </c>
       <c r="K88" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="L88" s="11">
         <f t="shared" si="22"/>
-        <v>3.5376330619912335</v>
+        <v>3.4920075140889169</v>
       </c>
       <c r="M88" s="11">
         <f t="shared" si="23"/>
-        <v>3.5446462116468376</v>
+        <v>3.5168741390106453</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
@@ -3139,16 +3545,16 @@
         <v>13</v>
       </c>
       <c r="G89" s="16">
-        <f t="shared" si="18"/>
-        <v>3.5004383218534749</v>
-      </c>
-      <c r="H89" s="18">
-        <f t="shared" si="24"/>
-        <v>3.5818409517845962</v>
+        <f>IF(J88="&gt;",H88,$L88+H111/H109*($M88-$L88)-POWER(-1,$C$74-$F89+1)/H109*$C$75)</f>
+        <v>3.5015541640576076</v>
+      </c>
+      <c r="H89" s="21">
+        <f>IF(J88="&lt;",G88,$L88+H110/H109*($M88-$L88)+POWER(-1,$C$74-$F89+1)/H109*$C$75)</f>
+        <v>3.5073274890419537</v>
       </c>
       <c r="I89" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="J89" s="11" t="str">
         <f t="shared" si="20"/>
@@ -3156,15 +3562,15 @@
       </c>
       <c r="K89" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2433020586109915</v>
+        <v>-6.249946307904338</v>
       </c>
       <c r="L89" s="11">
         <f t="shared" si="22"/>
-        <v>3.5376330619912335</v>
+        <v>3.4920075140889169</v>
       </c>
       <c r="M89" s="11">
         <f t="shared" si="23"/>
-        <v>3.5818409517845962</v>
+        <v>3.5073274890419537</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -3182,17 +3588,17 @@
       <c r="F90" s="11">
         <v>14</v>
       </c>
-      <c r="G90" s="30">
-        <f t="shared" si="18"/>
-        <v>3.6190356919223547</v>
-      </c>
-      <c r="H90" s="18">
-        <f t="shared" si="24"/>
-        <v>3.5004383218534749</v>
+      <c r="G90" s="22">
+        <f>IF(J89="&gt;",H89,$L89+H112/H110*($M89-$L89)-POWER(-1,$C$74-$F90+1)/H110*$C$75)</f>
+        <v>3.4977808390732625</v>
+      </c>
+      <c r="H90" s="24">
+        <f t="shared" si="26"/>
+        <v>3.5015541640576076</v>
       </c>
       <c r="I90" s="11">
         <f t="shared" si="19"/>
-        <v>-6.2358305040485646</v>
+        <v>-6.249995075324783</v>
       </c>
       <c r="J90" s="11" t="str">
         <f t="shared" si="20"/>
@@ -3200,15 +3606,15 @@
       </c>
       <c r="K90" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="L90" s="11">
         <f t="shared" si="22"/>
-        <v>3.6190356919223547</v>
+        <v>3.4977808390732625</v>
       </c>
       <c r="M90" s="11">
         <f t="shared" si="23"/>
-        <v>3.5818409517845962</v>
+        <v>3.5073274890419537</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -3226,17 +3632,17 @@
       <c r="F91" s="11">
         <v>15</v>
       </c>
-      <c r="G91" s="16">
-        <f t="shared" si="18"/>
-        <v>3.5004383218534749</v>
-      </c>
-      <c r="H91" s="19">
-        <f t="shared" si="24"/>
-        <v>3.7004383218534755</v>
+      <c r="G91" s="23">
+        <f>IF(J90="&gt;",H90,$L90+H113/H111*($M90-$L90)-POWER(-1,$C$74-$F91+1)/H111*$C$75)</f>
+        <v>3.5015541640576076</v>
+      </c>
+      <c r="H91" s="20">
+        <f t="shared" si="26"/>
+        <v>3.5035541640576082</v>
       </c>
       <c r="I91" s="11">
         <f>G91*G91 - 7*G91 + 6</f>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499975845740803</v>
       </c>
       <c r="J91" s="11" t="str">
         <f t="shared" si="20"/>
@@ -3244,15 +3650,15 @@
       </c>
       <c r="K91" s="11">
         <f t="shared" si="21"/>
-        <v>-6.2098244791325623</v>
+        <v>-6.2499873679178517</v>
       </c>
       <c r="L91" s="11">
         <f t="shared" si="22"/>
-        <v>3.6190356919223547</v>
+        <v>3.4977808390732625</v>
       </c>
       <c r="M91" s="11">
         <f t="shared" si="23"/>
-        <v>3.7004383218534755</v>
+        <v>3.5035541640576082</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -3331,10 +3737,10 @@
     <row r="95" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H95" s="25"/>
+      <c r="G95" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" s="30"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -3354,11 +3760,11 @@
     <row r="96" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96" s="21">
+      <c r="G96" s="19">
         <v>17</v>
       </c>
-      <c r="H96" s="21">
-        <f t="shared" ref="H96:H110" si="25">H97+H98</f>
+      <c r="H96" s="19">
+        <f t="shared" ref="H96:H110" si="27">H97+H98</f>
         <v>2584</v>
       </c>
       <c r="I96"/>
@@ -3378,11 +3784,11 @@
     <row r="97" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E97"/>
       <c r="F97"/>
-      <c r="G97" s="21">
+      <c r="G97" s="19">
         <v>16</v>
       </c>
-      <c r="H97" s="21">
-        <f t="shared" si="25"/>
+      <c r="H97" s="19">
+        <f t="shared" si="27"/>
         <v>1597</v>
       </c>
       <c r="I97"/>
@@ -3402,11 +3808,11 @@
     <row r="98" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98" s="21">
+      <c r="G98" s="19">
         <v>15</v>
       </c>
-      <c r="H98" s="21">
-        <f t="shared" si="25"/>
+      <c r="H98" s="19">
+        <f t="shared" si="27"/>
         <v>987</v>
       </c>
       <c r="I98"/>
@@ -3426,11 +3832,11 @@
     <row r="99" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E99"/>
       <c r="F99"/>
-      <c r="G99" s="21">
+      <c r="G99" s="19">
         <v>14</v>
       </c>
-      <c r="H99" s="21">
-        <f t="shared" si="25"/>
+      <c r="H99" s="19">
+        <f t="shared" si="27"/>
         <v>610</v>
       </c>
       <c r="I99"/>
@@ -3450,11 +3856,11 @@
     <row r="100" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E100"/>
       <c r="F100"/>
-      <c r="G100" s="21">
+      <c r="G100" s="19">
         <v>13</v>
       </c>
-      <c r="H100" s="21">
-        <f t="shared" si="25"/>
+      <c r="H100" s="19">
+        <f t="shared" si="27"/>
         <v>377</v>
       </c>
       <c r="I100"/>
@@ -3474,11 +3880,11 @@
     <row r="101" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E101"/>
       <c r="F101"/>
-      <c r="G101" s="21">
+      <c r="G101" s="19">
         <v>12</v>
       </c>
-      <c r="H101" s="21">
-        <f t="shared" si="25"/>
+      <c r="H101" s="19">
+        <f t="shared" si="27"/>
         <v>233</v>
       </c>
       <c r="I101"/>
@@ -3498,11 +3904,11 @@
     <row r="102" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E102"/>
       <c r="F102"/>
-      <c r="G102" s="21">
+      <c r="G102" s="19">
         <v>11</v>
       </c>
-      <c r="H102" s="21">
-        <f t="shared" si="25"/>
+      <c r="H102" s="19">
+        <f t="shared" si="27"/>
         <v>144</v>
       </c>
       <c r="I102"/>
@@ -3522,11 +3928,11 @@
     <row r="103" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E103"/>
       <c r="F103"/>
-      <c r="G103" s="21">
+      <c r="G103" s="19">
         <v>10</v>
       </c>
-      <c r="H103" s="21">
-        <f t="shared" si="25"/>
+      <c r="H103" s="19">
+        <f t="shared" si="27"/>
         <v>89</v>
       </c>
       <c r="I103"/>
@@ -3546,11 +3952,11 @@
     <row r="104" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104" s="21">
+      <c r="G104" s="19">
         <v>9</v>
       </c>
-      <c r="H104" s="21">
-        <f t="shared" si="25"/>
+      <c r="H104" s="19">
+        <f t="shared" si="27"/>
         <v>55</v>
       </c>
       <c r="I104"/>
@@ -3570,11 +3976,11 @@
     <row r="105" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E105"/>
       <c r="F105"/>
-      <c r="G105" s="21">
+      <c r="G105" s="19">
         <v>8</v>
       </c>
-      <c r="H105" s="21">
-        <f t="shared" si="25"/>
+      <c r="H105" s="19">
+        <f t="shared" si="27"/>
         <v>34</v>
       </c>
       <c r="I105"/>
@@ -3594,11 +4000,11 @@
     <row r="106" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106" s="21">
+      <c r="G106" s="19">
         <v>7</v>
       </c>
-      <c r="H106" s="21">
-        <f t="shared" si="25"/>
+      <c r="H106" s="19">
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="I106"/>
@@ -3618,11 +4024,11 @@
     <row r="107" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E107"/>
       <c r="F107"/>
-      <c r="G107" s="21">
+      <c r="G107" s="19">
         <v>6</v>
       </c>
-      <c r="H107" s="21">
-        <f t="shared" si="25"/>
+      <c r="H107" s="19">
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="I107"/>
@@ -3642,11 +4048,11 @@
     <row r="108" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E108"/>
       <c r="F108"/>
-      <c r="G108" s="21">
+      <c r="G108" s="19">
         <v>5</v>
       </c>
-      <c r="H108" s="21">
-        <f t="shared" si="25"/>
+      <c r="H108" s="19">
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="I108"/>
@@ -3666,11 +4072,11 @@
     <row r="109" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E109"/>
       <c r="F109"/>
-      <c r="G109" s="21">
+      <c r="G109" s="19">
         <v>4</v>
       </c>
-      <c r="H109" s="21">
-        <f t="shared" si="25"/>
+      <c r="H109" s="19">
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="I109"/>
@@ -3690,11 +4096,11 @@
     <row r="110" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E110"/>
       <c r="F110"/>
-      <c r="G110" s="21">
+      <c r="G110" s="19">
         <v>3</v>
       </c>
-      <c r="H110" s="21">
-        <f t="shared" si="25"/>
+      <c r="H110" s="19">
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="I110"/>
@@ -3714,10 +4120,10 @@
     <row r="111" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E111"/>
       <c r="F111"/>
-      <c r="G111" s="21">
+      <c r="G111" s="19">
         <v>2</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H111" s="19">
         <f>H112+H113</f>
         <v>2</v>
       </c>
@@ -3738,10 +4144,10 @@
     <row r="112" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E112"/>
       <c r="F112"/>
-      <c r="G112" s="21">
+      <c r="G112" s="19">
         <v>1</v>
       </c>
-      <c r="H112" s="21">
+      <c r="H112" s="19">
         <v>1</v>
       </c>
       <c r="I112"/>
@@ -3761,10 +4167,10 @@
     <row r="113" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E113"/>
       <c r="F113"/>
-      <c r="G113" s="21">
+      <c r="G113" s="19">
         <v>0</v>
       </c>
-      <c r="H113" s="21">
+      <c r="H113" s="19">
         <v>1</v>
       </c>
       <c r="I113"/>
@@ -3784,8 +4190,8 @@
     <row r="114" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E114"/>
       <c r="F114"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
@@ -3859,15 +4265,1353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1536E-A1D0-4E8B-BC2C-1B32967FE079}">
-  <dimension ref="A1"/>
+  <dimension ref="A8:K47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="26">
+        <v>4</v>
+      </c>
+      <c r="E11" s="26">
+        <v>40</v>
+      </c>
+      <c r="F11" s="26">
+        <v>4</v>
+      </c>
+      <c r="G11" s="46">
+        <f>SQRT(2*D11*C11/E11)</f>
+        <v>24.494897427831781</v>
+      </c>
+      <c r="H11" s="46">
+        <f>D11*C11/G11</f>
+        <v>489.89794855663564</v>
+      </c>
+      <c r="I11" s="46">
+        <f>E11*G11</f>
+        <v>979.79589711327117</v>
+      </c>
+      <c r="J11" s="46">
+        <f>F11*G11</f>
+        <v>97.979589711327122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="26">
+        <v>6</v>
+      </c>
+      <c r="E12" s="26">
+        <v>6</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3</v>
+      </c>
+      <c r="G12" s="46">
+        <f>SQRT(2*D12*C12/E12)</f>
+        <v>100</v>
+      </c>
+      <c r="H12" s="46">
+        <f t="shared" ref="H12:H15" si="0">D12*C12/G12</f>
+        <v>300</v>
+      </c>
+      <c r="I12" s="46">
+        <f t="shared" ref="I12:I15" si="1">E12*G12</f>
+        <v>600</v>
+      </c>
+      <c r="J12" s="46">
+        <f t="shared" ref="J12:J15" si="2">F12*G12</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <v>3</v>
+      </c>
+      <c r="C13" s="26">
+        <v>6400</v>
+      </c>
+      <c r="D13" s="26">
+        <v>7</v>
+      </c>
+      <c r="E13" s="26">
+        <v>14</v>
+      </c>
+      <c r="F13" s="26">
+        <v>5</v>
+      </c>
+      <c r="G13" s="46">
+        <f>SQRT(2*D13*C13/E13)</f>
+        <v>80</v>
+      </c>
+      <c r="H13" s="46">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="I13" s="46">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="J13" s="46">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>4</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="26">
+        <v>6</v>
+      </c>
+      <c r="E14" s="26">
+        <v>6</v>
+      </c>
+      <c r="F14" s="26">
+        <v>40</v>
+      </c>
+      <c r="G14" s="46">
+        <f>SQRT(2*D14*C14/E14)</f>
+        <v>54.772255750516614</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="0"/>
+        <v>164.31676725154983</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="1"/>
+        <v>328.63353450309967</v>
+      </c>
+      <c r="J14" s="46">
+        <f t="shared" si="2"/>
+        <v>2190.8902300206646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="36">
+        <v>5</v>
+      </c>
+      <c r="C15" s="36">
+        <v>80</v>
+      </c>
+      <c r="D15" s="36">
+        <v>4</v>
+      </c>
+      <c r="E15" s="36">
+        <v>16</v>
+      </c>
+      <c r="F15" s="36">
+        <v>20</v>
+      </c>
+      <c r="G15" s="47">
+        <f>SQRT(2*D15*C15/E15)</f>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H15" s="47">
+        <f t="shared" si="0"/>
+        <v>50.596442562694065</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" si="1"/>
+        <v>101.19288512538814</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="2"/>
+        <v>126.49110640673518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49">
+        <f>SUM(H11:H15)</f>
+        <v>1564.8111583708796</v>
+      </c>
+      <c r="I16" s="49">
+        <f>SUM(I11:I15)</f>
+        <v>3129.6223167417593</v>
+      </c>
+      <c r="J16" s="50">
+        <f>SUM(J11:J15)</f>
+        <v>3115.3609261387269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="49">
+        <f>H16 + I16/2</f>
+        <v>3129.6223167417593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>1</v>
+      </c>
+      <c r="C24" s="26">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="26">
+        <v>4</v>
+      </c>
+      <c r="E24" s="26">
+        <v>40</v>
+      </c>
+      <c r="F24" s="26">
+        <v>4</v>
+      </c>
+      <c r="G24" s="46">
+        <v>23.213575424968742</v>
+      </c>
+      <c r="H24" s="46">
+        <f>D24*C24/G24</f>
+        <v>516.93889374286937</v>
+      </c>
+      <c r="I24" s="46">
+        <f>E24*G24</f>
+        <v>928.54301699874964</v>
+      </c>
+      <c r="J24" s="46">
+        <f>F24*G24</f>
+        <v>92.854301699874966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>2</v>
+      </c>
+      <c r="C25" s="26">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="26">
+        <v>6</v>
+      </c>
+      <c r="E25" s="26">
+        <v>6</v>
+      </c>
+      <c r="F25" s="26">
+        <v>3</v>
+      </c>
+      <c r="G25" s="46">
+        <v>79.880045916095554</v>
+      </c>
+      <c r="H25" s="46">
+        <f t="shared" ref="H25:H28" si="3">D25*C25/G25</f>
+        <v>375.56312913880163</v>
+      </c>
+      <c r="I25" s="46">
+        <f t="shared" ref="I25:I28" si="4">E25*G25</f>
+        <v>479.28027549657332</v>
+      </c>
+      <c r="J25" s="46">
+        <f t="shared" ref="J25:J28" si="5">F25*G25</f>
+        <v>239.64013774828666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="26">
+        <v>6400</v>
+      </c>
+      <c r="D26" s="26">
+        <v>7</v>
+      </c>
+      <c r="E26" s="26">
+        <v>14</v>
+      </c>
+      <c r="F26" s="26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="46">
+        <v>67.488551863246329</v>
+      </c>
+      <c r="H26" s="46">
+        <f t="shared" si="3"/>
+        <v>663.8162882910766</v>
+      </c>
+      <c r="I26" s="46">
+        <f t="shared" si="4"/>
+        <v>944.83972608544855</v>
+      </c>
+      <c r="J26" s="46">
+        <f t="shared" si="5"/>
+        <v>337.44275931623167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>4</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1500</v>
+      </c>
+      <c r="D27" s="26">
+        <v>6</v>
+      </c>
+      <c r="E27" s="26">
+        <v>6</v>
+      </c>
+      <c r="F27" s="26">
+        <v>40</v>
+      </c>
+      <c r="G27" s="46">
+        <v>18.717935128265392</v>
+      </c>
+      <c r="H27" s="46">
+        <f t="shared" si="3"/>
+        <v>480.82226689681011</v>
+      </c>
+      <c r="I27" s="46">
+        <f t="shared" si="4"/>
+        <v>112.30761076959234</v>
+      </c>
+      <c r="J27" s="46">
+        <f t="shared" si="5"/>
+        <v>748.7174051306157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="36">
+        <v>5</v>
+      </c>
+      <c r="C28" s="36">
+        <v>80</v>
+      </c>
+      <c r="D28" s="36">
+        <v>4</v>
+      </c>
+      <c r="E28" s="36">
+        <v>16</v>
+      </c>
+      <c r="F28" s="36">
+        <v>20</v>
+      </c>
+      <c r="G28" s="46">
+        <v>4.0672698579829953</v>
+      </c>
+      <c r="H28" s="46">
+        <f t="shared" si="3"/>
+        <v>78.676854787966192</v>
+      </c>
+      <c r="I28" s="47">
+        <f t="shared" si="4"/>
+        <v>65.076317727727925</v>
+      </c>
+      <c r="J28" s="47">
+        <f t="shared" si="5"/>
+        <v>81.34539715965991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49">
+        <f>SUM(H24:H28)</f>
+        <v>2115.8174328575237</v>
+      </c>
+      <c r="I29" s="49">
+        <f>SUM(I24:I28)</f>
+        <v>2530.0469470780922</v>
+      </c>
+      <c r="J29" s="50">
+        <f>SUM(J24:J28)</f>
+        <v>1500.0000010546692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="39">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="49">
+        <f>H29 + 1/2*I29</f>
+        <v>3380.8409063965701</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="31">
+        <v>3115.36</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31">
+        <v>3129.62</v>
+      </c>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+    </row>
+    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="31">
+        <v>1500</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31">
+        <v>3380.84</v>
+      </c>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="53">
+        <v>1</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53">
+        <v>23.21</v>
+      </c>
+      <c r="E43" s="53"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="53">
+        <v>2</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53">
+        <v>79.88</v>
+      </c>
+      <c r="E44" s="53"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="53">
+        <v>3</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="E45" s="53"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="53">
+        <v>4</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53">
+        <v>18.72</v>
+      </c>
+      <c r="E46" s="53"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="53">
+        <v>5</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53">
+        <v>4.07</v>
+      </c>
+      <c r="E47" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I35:K36"/>
+    <mergeCell ref="E37:H39"/>
+    <mergeCell ref="I37:K39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:D39"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="E35:H36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679BC71E-4730-4D48-B60B-ED832414739B}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="51">
+        <v>3381.2565585664079</v>
+      </c>
+      <c r="E16" s="51">
+        <v>3380.8409063965701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="52">
+        <v>22.725238828093943</v>
+      </c>
+      <c r="E21" s="52">
+        <v>23.213575424968742</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="52">
+        <v>78.714848759965633</v>
+      </c>
+      <c r="E22" s="52">
+        <v>79.880045916095554</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="52">
+        <v>66.930120760996658</v>
+      </c>
+      <c r="E23" s="52">
+        <v>67.488551863246329</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="52">
+        <v>18.902330563459003</v>
+      </c>
+      <c r="E24" s="52">
+        <v>18.717935128265392</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="51">
+        <v>4.1105336395681826</v>
+      </c>
+      <c r="E25" s="51">
+        <v>4.0672698579829953</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="51">
+        <v>1500.0000010546692</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A0746B-ADE0-41CF-B42B-ADF562879721}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="43">
+        <v>23.213575424968742</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="43">
+        <v>79.880045916095554</v>
+      </c>
+      <c r="E10" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="43">
+        <v>67.488551863246329</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="43">
+        <v>18.717935128265392</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="41">
+        <v>4.0672698579829953</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1500.0000010546692</v>
+      </c>
+      <c r="E18" s="41">
+        <v>-0.56719326345252619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB121A0-3F77-41FB-AFE7-92B96730AEEF}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="51">
+        <v>3380.8409063965701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="F11" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="52">
+        <v>23.213575424968742</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="52">
+        <v>23.213575161301531</v>
+      </c>
+      <c r="J13" s="52">
+        <v>3380.8409069947829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="52">
+        <v>79.880045916095554</v>
+      </c>
+      <c r="F14" s="52">
+        <v>0</v>
+      </c>
+      <c r="G14" s="52" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="52">
+        <v>79.880045564539188</v>
+      </c>
+      <c r="J14" s="52">
+        <v>3380.8409069947738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="52">
+        <v>67.488551863246329</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="52">
+        <v>67.488551652312537</v>
+      </c>
+      <c r="J15" s="52">
+        <v>3380.8409069947747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="52">
+        <v>18.717935128265392</v>
+      </c>
+      <c r="F16" s="52">
+        <v>0</v>
+      </c>
+      <c r="G16" s="52" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="52">
+        <v>18.717935101898671</v>
+      </c>
+      <c r="J16" s="52">
+        <v>3380.840906994772</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="51">
+        <v>4.0672698579829953</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="51">
+        <v>4.0672698052495528</v>
+      </c>
+      <c r="J17" s="51">
+        <v>3380.8409069947729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LR4/LR4.xlsx
+++ b/LR4/LR4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Уник\МОптим\LR4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23FE51-8EBB-44DA-8B29-9E502EC93EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0315DD-7DB8-4695-8B2A-9CF4349E0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
   </bookViews>
@@ -721,33 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,14 +750,41 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,8 +1301,8 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1312,10 +1312,10 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="46"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1360,16 +1360,16 @@
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -1429,16 +1429,16 @@
         <f>IF(E9="&lt;",C9,H8)</f>
         <v>4.9442719099991592</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1902,8 +1902,8 @@
         <v>3.5037930786641516</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1932,15 +1932,15 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -1994,12 +1994,12 @@
       <c r="H33" s="9">
         <v>8</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
       <c r="Y33"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -2034,12 +2034,12 @@
         <f>IF(E34="&gt;", H33, C34)</f>
         <v>4.05</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
       <c r="Y34"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -2077,12 +2077,12 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
       <c r="Y35"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -2117,12 +2117,12 @@
         <f t="shared" si="11"/>
         <v>4.05</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
       <c r="Y36"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -2157,12 +2157,12 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
       <c r="Y37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -2197,12 +2197,12 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
       <c r="Y38"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -2271,15 +2271,15 @@
         <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
       <c r="Y40"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -2322,8 +2322,8 @@
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y43"/>
     </row>
-    <row r="44" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2602,25 +2602,25 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -2878,28 +2878,28 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-    </row>
-    <row r="72" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+    </row>
+    <row r="72" spans="1:23" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3081,15 +3081,15 @@
       </c>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="P78" s="28" t="s">
+      <c r="P78" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
+      <c r="Q78" s="49"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="49"/>
+      <c r="U78" s="49"/>
+      <c r="V78" s="49"/>
       <c r="W78"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="N81"/>
       <c r="O81"/>
-      <c r="P81" s="31" t="s">
+      <c r="P81" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="31"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
       <c r="T81"/>
       <c r="U81"/>
       <c r="V81"/>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="N82"/>
       <c r="O82"/>
-      <c r="P82" s="31" t="s">
+      <c r="P82" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
       <c r="T82"/>
       <c r="U82"/>
       <c r="V82"/>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="N83"/>
       <c r="O83"/>
-      <c r="P83" s="31" t="s">
+      <c r="P83" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
       <c r="T83"/>
       <c r="U83"/>
       <c r="V83"/>
@@ -3440,14 +3440,14 @@
       </c>
       <c r="N86"/>
       <c r="O86"/>
-      <c r="P86" s="28" t="s">
+      <c r="P86" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
-      <c r="S86" s="28"/>
-      <c r="T86" s="28"/>
-      <c r="U86" s="28"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="49"/>
       <c r="V86"/>
       <c r="W86"/>
     </row>
@@ -3737,10 +3737,10 @@
     <row r="95" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95" s="30" t="s">
+      <c r="G95" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H95" s="30"/>
+      <c r="H95" s="50"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -4231,21 +4231,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="L7:S7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="B54:H54"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B69:G69"/>
@@ -4256,6 +4241,21 @@
     <mergeCell ref="P83:S83"/>
     <mergeCell ref="P86:U86"/>
     <mergeCell ref="P78:V78"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="L7:S7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A26:XFD26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4267,8 +4267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1536E-A1D0-4E8B-BC2C-1B32967FE079}">
   <dimension ref="A8:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,8 +4278,8 @@
     <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4328,19 +4328,19 @@
       <c r="F11" s="26">
         <v>4</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="37">
         <f>SQRT(2*D11*C11/E11)</f>
         <v>24.494897427831781</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="37">
         <f>D11*C11/G11</f>
         <v>489.89794855663564</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="37">
         <f>E11*G11</f>
         <v>979.79589711327117</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="37">
         <f>F11*G11</f>
         <v>97.979589711327122</v>
       </c>
@@ -4361,19 +4361,19 @@
       <c r="F12" s="26">
         <v>3</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="37">
         <f>SQRT(2*D12*C12/E12)</f>
         <v>100</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="37">
         <f t="shared" ref="H12:H15" si="0">D12*C12/G12</f>
         <v>300</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="37">
         <f t="shared" ref="I12:I15" si="1">E12*G12</f>
         <v>600</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="37">
         <f t="shared" ref="J12:J15" si="2">F12*G12</f>
         <v>300</v>
       </c>
@@ -4394,19 +4394,19 @@
       <c r="F13" s="26">
         <v>5</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="37">
         <f>SQRT(2*D13*C13/E13)</f>
         <v>80</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="37">
         <f t="shared" si="1"/>
         <v>1120</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="37">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
@@ -4427,74 +4427,74 @@
       <c r="F14" s="26">
         <v>40</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="37">
         <f>SQRT(2*D14*C14/E14)</f>
         <v>54.772255750516614</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="37">
         <f t="shared" si="0"/>
         <v>164.31676725154983</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="37">
         <f t="shared" si="1"/>
         <v>328.63353450309967</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="37">
         <f t="shared" si="2"/>
         <v>2190.8902300206646</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="36">
+      <c r="B15" s="27">
         <v>5</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="27">
         <v>80</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="27">
         <v>4</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="27">
         <v>16</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="27">
         <v>20</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="38">
         <f>SQRT(2*D15*C15/E15)</f>
         <v>6.324555320336759</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="38">
         <f t="shared" si="0"/>
         <v>50.596442562694065</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="38">
         <f t="shared" si="1"/>
         <v>101.19288512538814</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="38">
         <f t="shared" si="2"/>
         <v>126.49110640673518</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40">
         <f>SUM(H11:H15)</f>
         <v>1564.8111583708796</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="40">
         <f>SUM(I11:I15)</f>
         <v>3129.6223167417593</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="41">
         <f>SUM(J11:J15)</f>
         <v>3115.3609261387269</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="B17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="30">
         <v>1500</v>
       </c>
     </row>
@@ -4511,13 +4511,13 @@
       <c r="B18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="40">
         <f>H16 + I16/2</f>
         <v>3129.6223167417593</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4566,18 +4566,18 @@
       <c r="F24" s="26">
         <v>4</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="37">
         <v>23.213575424968742</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="37">
         <f>D24*C24/G24</f>
         <v>516.93889374286937</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="37">
         <f>E24*G24</f>
         <v>928.54301699874964</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="37">
         <f>F24*G24</f>
         <v>92.854301699874966</v>
       </c>
@@ -4598,18 +4598,18 @@
       <c r="F25" s="26">
         <v>3</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="37">
         <v>79.880045916095554</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="37">
         <f t="shared" ref="H25:H28" si="3">D25*C25/G25</f>
         <v>375.56312913880163</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="37">
         <f t="shared" ref="I25:I28" si="4">E25*G25</f>
         <v>479.28027549657332</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="37">
         <f t="shared" ref="J25:J28" si="5">F25*G25</f>
         <v>239.64013774828666</v>
       </c>
@@ -4630,18 +4630,18 @@
       <c r="F26" s="26">
         <v>5</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="37">
         <v>67.488551863246329</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="37">
         <f t="shared" si="3"/>
         <v>663.8162882910766</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="37">
         <f t="shared" si="4"/>
         <v>944.83972608544855</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="37">
         <f t="shared" si="5"/>
         <v>337.44275931623167</v>
       </c>
@@ -4662,72 +4662,72 @@
       <c r="F27" s="26">
         <v>40</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="37">
         <v>18.717935128265392</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="37">
         <f t="shared" si="3"/>
         <v>480.82226689681011</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="37">
         <f t="shared" si="4"/>
         <v>112.30761076959234</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="37">
         <f t="shared" si="5"/>
         <v>748.7174051306157</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="36">
+      <c r="B28" s="27">
         <v>5</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="27">
         <v>80</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="27">
         <v>4</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="27">
         <v>16</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="27">
         <v>20</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="37">
         <v>4.0672698579829953</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="37">
         <f t="shared" si="3"/>
         <v>78.676854787966192</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="38">
         <f t="shared" si="4"/>
         <v>65.076317727727925</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="38">
         <f t="shared" si="5"/>
         <v>81.34539715965991</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49">
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40">
         <f>SUM(H24:H28)</f>
         <v>2115.8174328575237</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="40">
         <f>SUM(I24:I28)</f>
         <v>2530.0469470780922</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="41">
         <f>SUM(J24:J28)</f>
         <v>1500.0000010546692</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="B30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="30">
         <v>1500</v>
       </c>
     </row>
@@ -4744,187 +4744,171 @@
       <c r="B31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="40">
         <f>H29 + 1/2*I29</f>
         <v>3380.8409063965701</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="31">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="51">
         <v>3115.36</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31">
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51">
         <v>3129.62</v>
       </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="31">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="51">
         <v>1500</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31">
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51">
         <v>3380.84</v>
       </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="55"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="53">
+      <c r="B43" s="52">
         <v>1</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52">
         <v>23.21</v>
       </c>
-      <c r="E43" s="53"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="53">
+      <c r="B44" s="52">
         <v>2</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53">
+      <c r="C44" s="52"/>
+      <c r="D44" s="52">
         <v>79.88</v>
       </c>
-      <c r="E44" s="53"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="53">
+      <c r="B45" s="52">
         <v>3</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53">
+      <c r="C45" s="52"/>
+      <c r="D45" s="52">
         <v>67.489999999999995</v>
       </c>
-      <c r="E45" s="53"/>
+      <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="53">
+      <c r="B46" s="52">
         <v>4</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53">
+      <c r="C46" s="52"/>
+      <c r="D46" s="52">
         <v>18.72</v>
       </c>
-      <c r="E46" s="53"/>
+      <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="53">
+      <c r="B47" s="52">
         <v>5</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52">
         <v>4.07</v>
       </c>
-      <c r="E47" s="53"/>
+      <c r="E47" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I35:K36"/>
-    <mergeCell ref="E37:H39"/>
-    <mergeCell ref="I37:K39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="B34:D34"/>
@@ -4933,6 +4917,22 @@
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:K36"/>
+    <mergeCell ref="E37:H39"/>
+    <mergeCell ref="I37:K39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4957,50 +4957,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="31"/>
       <c r="B6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="31"/>
       <c r="B7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="31"/>
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="31" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5025,30 +5025,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="42">
         <v>3381.2565585664079</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="42">
         <v>3380.8409063965701</v>
       </c>
     </row>
@@ -5058,104 +5058,104 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="43">
         <v>22.725238828093943</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="43">
         <v>23.213575424968742</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="43">
         <v>78.714848759965633</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="43">
         <v>79.880045916095554</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="43">
         <v>66.930120760996658</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="43">
         <v>67.488551863246329</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="43">
         <v>18.902330563459003</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="43">
         <v>18.717935128265392</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="42">
         <v>4.1105336395681826</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="42">
         <v>4.0672698579829953</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="32" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5165,42 +5165,42 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="33" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="42">
         <v>1500.0000010546692</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="32">
         <v>0</v>
       </c>
     </row>
@@ -5225,17 +5225,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5245,96 +5245,96 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="34">
         <v>23.213575424968742</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="34">
         <v>79.880045916095554</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="34">
         <v>67.488551863246329</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="34">
         <v>18.717935128265392</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="32">
         <v>4.0672698579829953</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="32">
         <v>0</v>
       </c>
     </row>
@@ -5344,40 +5344,40 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="36" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="32">
         <v>1500.0000010546692</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="32">
         <v>-0.56719326345252619</v>
       </c>
     </row>
@@ -5409,205 +5409,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="31" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="42">
         <v>3380.8409063965701</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="F11" s="44" t="s">
+      <c r="D11" s="35"/>
+      <c r="F11" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="36" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="43">
         <v>23.213575424968742</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="43">
         <v>0</v>
       </c>
-      <c r="G13" s="52" t="e">
+      <c r="G13" s="43" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="43">
         <v>23.213575161301531</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="43">
         <v>3380.8409069947829</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="43">
         <v>79.880045916095554</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="43">
         <v>0</v>
       </c>
-      <c r="G14" s="52" t="e">
+      <c r="G14" s="43" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="43">
         <v>79.880045564539188</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="43">
         <v>3380.8409069947738</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="43">
         <v>67.488551863246329</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="43">
         <v>0</v>
       </c>
-      <c r="G15" s="52" t="e">
+      <c r="G15" s="43" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="43">
         <v>67.488551652312537</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="43">
         <v>3380.8409069947747</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="43">
         <v>18.717935128265392</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="43">
         <v>0</v>
       </c>
-      <c r="G16" s="52" t="e">
+      <c r="G16" s="43" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="43">
         <v>18.717935101898671</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="43">
         <v>3380.840906994772</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="42">
         <v>4.0672698579829953</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="42">
         <v>0</v>
       </c>
-      <c r="G17" s="51" t="e">
+      <c r="G17" s="42" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="42">
         <v>4.0672698052495528</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="42">
         <v>3380.8409069947729</v>
       </c>
     </row>

--- a/LR4/LR4.xlsx
+++ b/LR4/LR4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\Уник\МОптим\LR4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0315DD-7DB8-4695-8B2A-9CF4349E0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E593137A-569F-4E65-81FB-B81ED39510B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52FA36CE-2CFD-4E98-A903-F92C4E00F60C}"/>
   </bookViews>
@@ -753,20 +753,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,10 +765,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,6 +779,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DCCB0-9C58-468D-AED0-D45510B4B5C4}">
   <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A37" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,8 +1301,8 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1312,10 +1312,10 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1902,8 +1902,8 @@
         <v>3.5037930786641516</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1994,12 +1994,12 @@
       <c r="H33" s="9">
         <v>8</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
       <c r="Y33"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -2034,12 +2034,12 @@
         <f>IF(E34="&gt;", H33, C34)</f>
         <v>4.05</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
       <c r="Y34"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="9">
-        <f t="shared" ref="B35:B41" si="7">(G34+H34)/2 - $B$30/2</f>
+        <f>(G34+H34)/2 - $B$30/2</f>
         <v>1.9749999999999999</v>
       </c>
       <c r="C35" s="9">
@@ -2055,11 +2055,11 @@
         <v>2.0749999999999997</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" ref="D35:D41" si="8">B35*B35 - 7*B35 + 6</f>
+        <f t="shared" ref="D35:D41" si="7">B35*B35 - 7*B35 + 6</f>
         <v>-3.9243749999999995</v>
       </c>
       <c r="E35" s="9" t="str">
-        <f t="shared" ref="E35:E41" si="9">IF(D35&lt;F35,"&lt;","&gt;")</f>
+        <f t="shared" ref="E35:E41" si="8">IF(D35&lt;F35,"&lt;","&gt;")</f>
         <v>&gt;</v>
       </c>
       <c r="F35" s="9">
@@ -2067,22 +2067,22 @@
         <v>-4.2193749999999994</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" ref="G35:G41" si="10">IF(E35="&lt;", G34,B35)</f>
+        <f t="shared" ref="G35:G41" si="9">IF(E35="&lt;", G34,B35)</f>
         <v>1.9749999999999999</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" ref="H35:H41" si="11">IF(E35="&gt;", H34, C35)</f>
+        <f t="shared" ref="H35:H41" si="10">IF(E35="&gt;", H34, C35)</f>
         <v>4.05</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
       <c r="Y35"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B35:B41" si="11">(G35+H35)/2 - $B$30/2</f>
         <v>2.9624999999999999</v>
       </c>
       <c r="C36" s="9">
@@ -2098,11 +2098,11 @@
         <v>3.0624999999999996</v>
       </c>
       <c r="D36" s="9">
+        <f t="shared" si="7"/>
+        <v>-5.9610937500000016</v>
+      </c>
+      <c r="E36" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>-5.9610937500000016</v>
-      </c>
-      <c r="E36" s="9" t="str">
-        <f t="shared" si="9"/>
         <v>&gt;</v>
       </c>
       <c r="F36" s="9">
@@ -2110,19 +2110,19 @@
         <v>-6.05859375</v>
       </c>
       <c r="G36" s="9">
+        <f t="shared" si="9"/>
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="H36" s="9">
         <f t="shared" si="10"/>
-        <v>2.9624999999999999</v>
-      </c>
-      <c r="H36" s="9">
-        <f t="shared" si="11"/>
         <v>4.05</v>
       </c>
-      <c r="J36" s="48" t="s">
+      <c r="J36" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
       <c r="Y36"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4562499999999998</v>
       </c>
       <c r="C37" s="8">
@@ -2138,11 +2138,11 @@
         <v>3.5562499999999995</v>
       </c>
       <c r="D37" s="9">
+        <f t="shared" si="7"/>
+        <v>-6.2480859374999991</v>
+      </c>
+      <c r="E37" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>-6.2480859374999991</v>
-      </c>
-      <c r="E37" s="9" t="str">
-        <f t="shared" si="9"/>
         <v>&lt;</v>
       </c>
       <c r="F37" s="9">
@@ -2150,19 +2150,19 @@
         <v>-6.2468359375000002</v>
       </c>
       <c r="G37" s="9">
+        <f t="shared" si="9"/>
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" si="10"/>
-        <v>2.9624999999999999</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
       <c r="Y37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.2093749999999996</v>
       </c>
       <c r="C38" s="9">
@@ -2178,11 +2178,11 @@
         <v>3.3093749999999993</v>
       </c>
       <c r="D38" s="9">
+        <f t="shared" si="7"/>
+        <v>-6.1655371093749984</v>
+      </c>
+      <c r="E38" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>-6.1655371093749984</v>
-      </c>
-      <c r="E38" s="9" t="str">
-        <f t="shared" si="9"/>
         <v>&gt;</v>
       </c>
       <c r="F38" s="9">
@@ -2190,19 +2190,19 @@
         <v>-6.2136621093749991</v>
       </c>
       <c r="G38" s="9">
+        <f t="shared" si="9"/>
+        <v>3.2093749999999996</v>
+      </c>
+      <c r="H38" s="9">
         <f t="shared" si="10"/>
-        <v>3.2093749999999996</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
       <c r="Y38"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.3328124999999997</v>
       </c>
       <c r="C39" s="14">
@@ -2218,11 +2218,11 @@
         <v>3.4328124999999994</v>
       </c>
       <c r="D39" s="9">
+        <f t="shared" si="7"/>
+        <v>-6.2220483398437505</v>
+      </c>
+      <c r="E39" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>-6.2220483398437505</v>
-      </c>
-      <c r="E39" s="9" t="str">
-        <f t="shared" si="9"/>
         <v>&gt;</v>
       </c>
       <c r="F39" s="9">
@@ -2230,11 +2230,11 @@
         <v>-6.2454858398437487</v>
       </c>
       <c r="G39" s="9">
+        <f t="shared" si="9"/>
+        <v>3.3328124999999997</v>
+      </c>
+      <c r="H39" s="9">
         <f t="shared" si="10"/>
-        <v>3.3328124999999997</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
       <c r="Y39"/>
@@ -2244,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.39453125</v>
       </c>
       <c r="C40" s="14">
@@ -2252,11 +2252,11 @@
         <v>3.4945312499999996</v>
       </c>
       <c r="D40" s="9">
+        <f t="shared" si="7"/>
+        <v>-6.2388763427734375</v>
+      </c>
+      <c r="E40" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>-6.2388763427734375</v>
-      </c>
-      <c r="E40" s="9" t="str">
-        <f t="shared" si="9"/>
         <v>&gt;</v>
       </c>
       <c r="F40" s="9">
@@ -2264,11 +2264,11 @@
         <v>-6.2499700927734363</v>
       </c>
       <c r="G40" s="9">
+        <f t="shared" si="9"/>
+        <v>3.39453125</v>
+      </c>
+      <c r="H40" s="9">
         <f t="shared" si="10"/>
-        <v>3.39453125</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
       <c r="J40" s="44" t="s">
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4253906249999999</v>
       </c>
       <c r="C41" s="14">
@@ -2295,11 +2295,11 @@
         <v>3.5253906249999996</v>
       </c>
       <c r="D41" s="9">
+        <f t="shared" si="7"/>
+        <v>-6.2444334411621103</v>
+      </c>
+      <c r="E41" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>-6.2444334411621103</v>
-      </c>
-      <c r="E41" s="9" t="str">
-        <f t="shared" si="9"/>
         <v>&gt;</v>
       </c>
       <c r="F41" s="9">
@@ -2307,11 +2307,11 @@
         <v>-6.2493553161621094</v>
       </c>
       <c r="G41" s="9">
+        <f t="shared" si="9"/>
+        <v>3.4253906249999999</v>
+      </c>
+      <c r="H41" s="9">
         <f t="shared" si="10"/>
-        <v>3.4253906249999999</v>
-      </c>
-      <c r="H41" s="9">
-        <f t="shared" si="11"/>
         <v>3.5562499999999995</v>
       </c>
       <c r="Y41"/>
@@ -2322,8 +2322,8 @@
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y43"/>
     </row>
-    <row r="44" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2602,15 +2602,15 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="44" t="s">
@@ -2878,15 +2878,15 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B69" s="44" t="s">
@@ -2898,8 +2898,8 @@
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
     </row>
-    <row r="72" spans="1:23" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
+    <row r="72" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3081,15 +3081,15 @@
       </c>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="P78" s="49" t="s">
+      <c r="P78" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Q78" s="49"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="49"/>
-      <c r="T78" s="49"/>
-      <c r="U78" s="49"/>
-      <c r="V78" s="49"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="45"/>
       <c r="W78"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="N81"/>
       <c r="O81"/>
-      <c r="P81" s="51" t="s">
+      <c r="P81" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="Q81" s="51"/>
-      <c r="R81" s="51"/>
-      <c r="S81" s="51"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
       <c r="T81"/>
       <c r="U81"/>
       <c r="V81"/>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="N82"/>
       <c r="O82"/>
-      <c r="P82" s="51" t="s">
+      <c r="P82" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="51"/>
-      <c r="S82" s="51"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
       <c r="T82"/>
       <c r="U82"/>
       <c r="V82"/>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="N83"/>
       <c r="O83"/>
-      <c r="P83" s="51" t="s">
+      <c r="P83" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="51"/>
-      <c r="S83" s="51"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="48"/>
       <c r="T83"/>
       <c r="U83"/>
       <c r="V83"/>
@@ -3440,14 +3440,14 @@
       </c>
       <c r="N86"/>
       <c r="O86"/>
-      <c r="P86" s="49" t="s">
+      <c r="P86" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="49"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="49"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
       <c r="V86"/>
       <c r="W86"/>
     </row>
@@ -3737,10 +3737,10 @@
     <row r="95" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95" s="50" t="s">
+      <c r="G95" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H95" s="50"/>
+      <c r="H95" s="47"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -4231,6 +4231,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="L7:S7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="B54:H54"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B69:G69"/>
@@ -4241,21 +4256,6 @@
     <mergeCell ref="P83:S83"/>
     <mergeCell ref="P86:U86"/>
     <mergeCell ref="P78:V78"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="L7:S7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A26:XFD26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4267,8 +4267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1536E-A1D0-4E8B-BC2C-1B32967FE079}">
   <dimension ref="A8:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,8 +4278,8 @@
     <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4516,8 +4516,8 @@
         <v>3129.6223167417593</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+    <row r="21" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4750,165 +4750,178 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50" t="s">
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="51">
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="48">
         <v>3115.36</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51">
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48">
         <v>3129.62</v>
       </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="51">
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="48">
         <v>1500</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51">
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48">
         <v>3380.84</v>
       </c>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="53"/>
+      <c r="E42" s="54"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="52">
+      <c r="B43" s="55">
         <v>1</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55">
         <v>23.21</v>
       </c>
-      <c r="E43" s="52"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="52">
+      <c r="B44" s="55">
         <v>2</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52">
+      <c r="C44" s="55"/>
+      <c r="D44" s="55">
         <v>79.88</v>
       </c>
-      <c r="E44" s="52"/>
+      <c r="E44" s="55"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="52">
+      <c r="B45" s="55">
         <v>3</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52">
+      <c r="C45" s="55"/>
+      <c r="D45" s="55">
         <v>67.489999999999995</v>
       </c>
-      <c r="E45" s="52"/>
+      <c r="E45" s="55"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="52">
+      <c r="B46" s="55">
         <v>4</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55">
         <v>18.72</v>
       </c>
-      <c r="E46" s="52"/>
+      <c r="E46" s="55"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="52">
+      <c r="B47" s="55">
         <v>5</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52">
+      <c r="C47" s="55"/>
+      <c r="D47" s="55">
         <v>4.07</v>
       </c>
-      <c r="E47" s="52"/>
+      <c r="E47" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="B34:D34"/>
@@ -4920,19 +4933,6 @@
     <mergeCell ref="I35:K36"/>
     <mergeCell ref="E37:H39"/>
     <mergeCell ref="I37:K39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
